--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_9_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_9_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>834566.5080474205</v>
+        <v>858317.8459084413</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9530324.193536608</v>
+        <v>9530324.193536609</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>175.6616923313616</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>199.4342555987303</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>199.4342555987303</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="G2" t="n">
-        <v>199.4342555987303</v>
+        <v>25.79257439021207</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>110.249414360697</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -747,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -756,10 +758,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>41.57016143950682</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,28 +898,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>199.4342555987303</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>199.4342555987303</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>131.5429205053579</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>25.79257439021207</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>199.4342555987303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>8.381917355236441</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>199.4342555987303</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>199.4342555987303</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="X6" t="n">
-        <v>199.4342555987303</v>
+        <v>155.8480666682221</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>153.7217037622044</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>199.4342555987305</v>
+        <v>187.9841039046502</v>
       </c>
       <c r="G8" t="n">
-        <v>199.4342555987305</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>199.4342555987305</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>97.06495069950401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1233,7 +1235,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1275,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>35.4410661446878</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>175.6616923313617</v>
       </c>
       <c r="E11" t="n">
-        <v>175.6616923313617</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="F11" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>199.4342555987305</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>35.85426529190912</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>93.4957236135117</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1506,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="X12" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1534,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>69.14137556601797</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1613,67 +1615,67 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>175.6616923313617</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>199.4342555987304</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1701,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>54.46317324262379</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1740,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>199.4342555987305</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="W15" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>175.6616923313617</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1771,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -1786,7 +1788,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>33.20988753395271</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>44.45311753961038</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>342.2539560722652</v>
       </c>
     </row>
     <row r="18">
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>82.92375604299517</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,16 +2016,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>118.9621335895198</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,10 +2089,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>315.0228819490326</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>396.3553702281303</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -2099,7 +2101,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2214,7 +2216,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>25.31590541686196</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>94.32873841396635</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2324,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>22.02087812852517</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>190.322639827404</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2408,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933832</v>
       </c>
       <c r="G24" t="n">
         <v>136.5310119231965</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>223.1498336210771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2600,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>265.2188210461265</v>
       </c>
       <c r="W26" t="n">
-        <v>110.1455374528837</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2682,7 +2684,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>101.3315047991723</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>247.5774787490641</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,19 +2845,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>325.2490633606464</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>155.2114886365809</v>
+        <v>70.80276983270103</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>9.873753616920807</v>
       </c>
       <c r="F32" t="n">
-        <v>333.0858266775312</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -3074,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3162,7 +3164,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888678</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3187,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>37.83808333974876</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>4.553842565068575</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,16 +3271,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>279.938790180569</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>147.2907482601402</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>16.88986550434877</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3505,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>275.4805812731073</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>140.5244426134296</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>58.48269361864185</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>230.263497954106</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>175.6616923313617</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>199.4342555987304</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.245979522390105</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3870,19 +3872,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>199.4342555987304</v>
+        <v>175.6616923313617</v>
       </c>
       <c r="V42" t="n">
         <v>199.4342555987304</v>
       </c>
       <c r="W42" t="n">
-        <v>178.2061855316431</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3916,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>199.4342555987304</v>
       </c>
       <c r="T43" t="n">
-        <v>199.4342555987304</v>
+        <v>112.0563638475311</v>
       </c>
       <c r="U43" t="n">
-        <v>92.78768922967602</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3980,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.245979522390105</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.245979522390176</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>199.4342555987304</v>
@@ -4107,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>175.6616923313617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>199.4342555987304</v>
@@ -4119,10 +4121,10 @@
         <v>199.4342555987304</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>175.6616923313617</v>
       </c>
     </row>
     <row r="46">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>59.62090102789666</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4177,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>41.75100837039689</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>797.7370223949214</v>
+        <v>243.4565889215778</v>
       </c>
       <c r="C2" t="n">
-        <v>797.7370223949214</v>
+        <v>243.4565889215778</v>
       </c>
       <c r="D2" t="n">
-        <v>620.3009695349601</v>
+        <v>243.4565889215778</v>
       </c>
       <c r="E2" t="n">
-        <v>418.8522265059395</v>
+        <v>243.4565889215778</v>
       </c>
       <c r="F2" t="n">
-        <v>217.403483476919</v>
+        <v>42.0078458925571</v>
       </c>
       <c r="G2" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="H2" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="I2" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="J2" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="K2" t="n">
         <v>118.9697463588208</v>
@@ -4337,43 +4339,43 @@
         <v>299.0455979434794</v>
       </c>
       <c r="M2" t="n">
-        <v>496.4855109862224</v>
+        <v>496.4855109862226</v>
       </c>
       <c r="N2" t="n">
-        <v>648.5420722522733</v>
+        <v>693.9254240289658</v>
       </c>
       <c r="O2" t="n">
-        <v>797.7370223949214</v>
+        <v>797.7370223949221</v>
       </c>
       <c r="P2" t="n">
-        <v>797.7370223949214</v>
+        <v>797.7370223949221</v>
       </c>
       <c r="Q2" t="n">
-        <v>797.7370223949214</v>
+        <v>797.7370223949221</v>
       </c>
       <c r="R2" t="n">
-        <v>797.7370223949214</v>
+        <v>646.3540749796193</v>
       </c>
       <c r="S2" t="n">
-        <v>797.7370223949214</v>
+        <v>444.9053319505986</v>
       </c>
       <c r="T2" t="n">
-        <v>797.7370223949214</v>
+        <v>444.9053319505986</v>
       </c>
       <c r="U2" t="n">
-        <v>797.7370223949214</v>
+        <v>444.9053319505986</v>
       </c>
       <c r="V2" t="n">
-        <v>797.7370223949214</v>
+        <v>243.4565889215778</v>
       </c>
       <c r="W2" t="n">
-        <v>797.7370223949214</v>
+        <v>243.4565889215778</v>
       </c>
       <c r="X2" t="n">
-        <v>797.7370223949214</v>
+        <v>243.4565889215778</v>
       </c>
       <c r="Y2" t="n">
-        <v>797.7370223949214</v>
+        <v>243.4565889215778</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>654.5774308876992</v>
+        <v>528.3521559277397</v>
       </c>
       <c r="C3" t="n">
-        <v>654.5774308876992</v>
+        <v>416.9891111189548</v>
       </c>
       <c r="D3" t="n">
-        <v>505.6430212264479</v>
+        <v>268.0547014577036</v>
       </c>
       <c r="E3" t="n">
-        <v>505.6430212264479</v>
+        <v>268.0547014577036</v>
       </c>
       <c r="F3" t="n">
-        <v>359.1084632533328</v>
+        <v>268.0547014577036</v>
       </c>
       <c r="G3" t="n">
-        <v>220.3776378359483</v>
+        <v>129.3238760403191</v>
       </c>
       <c r="H3" t="n">
-        <v>107.0085022435277</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="I3" t="n">
-        <v>16.70887310068414</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="J3" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="K3" t="n">
         <v>141.3123005057358</v>
       </c>
       <c r="L3" t="n">
-        <v>338.7522135484788</v>
+        <v>338.7522135484791</v>
       </c>
       <c r="M3" t="n">
-        <v>536.1921265912218</v>
+        <v>536.1921265912223</v>
       </c>
       <c r="N3" t="n">
-        <v>615.0935447815705</v>
+        <v>615.0935447815712</v>
       </c>
       <c r="O3" t="n">
-        <v>615.0935447815705</v>
+        <v>615.0935447815712</v>
       </c>
       <c r="P3" t="n">
-        <v>797.7370223949214</v>
+        <v>797.7370223949221</v>
       </c>
       <c r="Q3" t="n">
-        <v>797.7370223949214</v>
+        <v>797.7370223949221</v>
       </c>
       <c r="R3" t="n">
-        <v>696.5674929478071</v>
+        <v>696.5674929478078</v>
       </c>
       <c r="S3" t="n">
-        <v>696.5674929478071</v>
+        <v>696.5674929478078</v>
       </c>
       <c r="T3" t="n">
-        <v>696.5674929478071</v>
+        <v>696.5674929478078</v>
       </c>
       <c r="U3" t="n">
-        <v>654.5774308876992</v>
+        <v>696.5674929478078</v>
       </c>
       <c r="V3" t="n">
-        <v>654.5774308876992</v>
+        <v>696.5674929478078</v>
       </c>
       <c r="W3" t="n">
-        <v>654.5774308876992</v>
+        <v>696.5674929478078</v>
       </c>
       <c r="X3" t="n">
-        <v>654.5774308876992</v>
+        <v>696.5674929478078</v>
       </c>
       <c r="Y3" t="n">
-        <v>654.5774308876992</v>
+        <v>696.5674929478078</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="C4" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="D4" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="E4" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="F4" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="G4" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="H4" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="I4" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="J4" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="K4" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="L4" t="n">
-        <v>43.2688654556114</v>
+        <v>43.26886545561142</v>
       </c>
       <c r="M4" t="n">
-        <v>82.45690364783358</v>
+        <v>82.4569036478336</v>
       </c>
       <c r="N4" t="n">
         <v>126.1477543032699</v>
@@ -4504,34 +4506,34 @@
         <v>150.4870309381692</v>
       </c>
       <c r="P4" t="n">
-        <v>150.4870309381692</v>
+        <v>147.7381009027081</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.4870309381692</v>
+        <v>147.7381009027081</v>
       </c>
       <c r="R4" t="n">
-        <v>150.4870309381692</v>
+        <v>147.7381009027081</v>
       </c>
       <c r="S4" t="n">
-        <v>150.4870309381692</v>
+        <v>147.7381009027081</v>
       </c>
       <c r="T4" t="n">
-        <v>150.4870309381692</v>
+        <v>147.7381009027081</v>
       </c>
       <c r="U4" t="n">
-        <v>150.4870309381692</v>
+        <v>147.7381009027081</v>
       </c>
       <c r="V4" t="n">
-        <v>150.4870309381692</v>
+        <v>147.7381009027081</v>
       </c>
       <c r="W4" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="X4" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>586.1966639976738</v>
+        <v>646.3540749796193</v>
       </c>
       <c r="C5" t="n">
-        <v>384.7479209686533</v>
+        <v>646.3540749796193</v>
       </c>
       <c r="D5" t="n">
-        <v>183.2991779396327</v>
+        <v>646.3540749796193</v>
       </c>
       <c r="E5" t="n">
-        <v>50.42754106553379</v>
+        <v>646.3540749796193</v>
       </c>
       <c r="F5" t="n">
-        <v>43.48204031633031</v>
+        <v>444.9053319505986</v>
       </c>
       <c r="G5" t="n">
-        <v>28.02472969498178</v>
+        <v>243.4565889215778</v>
       </c>
       <c r="H5" t="n">
-        <v>28.02472969498178</v>
+        <v>42.0078458925571</v>
       </c>
       <c r="I5" t="n">
-        <v>28.02472969498178</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="J5" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="K5" t="n">
         <v>118.9697463588208</v>
       </c>
       <c r="L5" t="n">
-        <v>299.0455979434794</v>
+        <v>164.0021908747366</v>
       </c>
       <c r="M5" t="n">
-        <v>496.4855109862224</v>
+        <v>361.4421039174798</v>
       </c>
       <c r="N5" t="n">
-        <v>558.8820169602224</v>
+        <v>558.882016960223</v>
       </c>
       <c r="O5" t="n">
-        <v>708.0769671028704</v>
+        <v>708.0769671028711</v>
       </c>
       <c r="P5" t="n">
-        <v>797.7370223949214</v>
+        <v>797.7370223949221</v>
       </c>
       <c r="Q5" t="n">
-        <v>787.6454070266943</v>
+        <v>797.7370223949221</v>
       </c>
       <c r="R5" t="n">
-        <v>787.6454070266943</v>
+        <v>646.3540749796193</v>
       </c>
       <c r="S5" t="n">
-        <v>787.6454070266943</v>
+        <v>646.3540749796193</v>
       </c>
       <c r="T5" t="n">
-        <v>787.6454070266943</v>
+        <v>646.3540749796193</v>
       </c>
       <c r="U5" t="n">
-        <v>787.6454070266943</v>
+        <v>646.3540749796193</v>
       </c>
       <c r="V5" t="n">
-        <v>787.6454070266943</v>
+        <v>646.3540749796193</v>
       </c>
       <c r="W5" t="n">
-        <v>787.6454070266943</v>
+        <v>646.3540749796193</v>
       </c>
       <c r="X5" t="n">
-        <v>787.6454070266943</v>
+        <v>646.3540749796193</v>
       </c>
       <c r="Y5" t="n">
-        <v>586.1966639976738</v>
+        <v>646.3540749796193</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.70887310068414</v>
+        <v>337.6964603549262</v>
       </c>
       <c r="C6" t="n">
-        <v>16.70887310068414</v>
+        <v>163.2434310737992</v>
       </c>
       <c r="D6" t="n">
-        <v>16.70887310068414</v>
+        <v>163.2434310737992</v>
       </c>
       <c r="E6" t="n">
-        <v>16.70887310068414</v>
+        <v>163.2434310737992</v>
       </c>
       <c r="F6" t="n">
-        <v>16.70887310068414</v>
+        <v>16.70887310068415</v>
       </c>
       <c r="G6" t="n">
-        <v>16.70887310068414</v>
+        <v>16.70887310068415</v>
       </c>
       <c r="H6" t="n">
-        <v>16.70887310068414</v>
+        <v>16.70887310068415</v>
       </c>
       <c r="I6" t="n">
-        <v>16.70887310068414</v>
+        <v>16.70887310068415</v>
       </c>
       <c r="J6" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="K6" t="n">
         <v>141.3123005057358</v>
       </c>
       <c r="L6" t="n">
-        <v>338.7522135484788</v>
+        <v>141.3123005057358</v>
       </c>
       <c r="M6" t="n">
-        <v>402.8571963094354</v>
+        <v>338.7522135484791</v>
       </c>
       <c r="N6" t="n">
-        <v>600.2971093521784</v>
+        <v>536.1921265912223</v>
       </c>
       <c r="O6" t="n">
-        <v>797.7370223949214</v>
+        <v>545.6989862682419</v>
       </c>
       <c r="P6" t="n">
-        <v>797.7370223949214</v>
+        <v>728.3424638815927</v>
       </c>
       <c r="Q6" t="n">
-        <v>797.7370223949214</v>
+        <v>797.7370223949221</v>
       </c>
       <c r="R6" t="n">
-        <v>797.7370223949214</v>
+        <v>696.5674929478078</v>
       </c>
       <c r="S6" t="n">
-        <v>797.7370223949214</v>
+        <v>696.5674929478078</v>
       </c>
       <c r="T6" t="n">
-        <v>797.7370223949214</v>
+        <v>696.5674929478078</v>
       </c>
       <c r="U6" t="n">
-        <v>789.2704392078139</v>
+        <v>696.5674929478078</v>
       </c>
       <c r="V6" t="n">
-        <v>587.8216961787933</v>
+        <v>696.5674929478078</v>
       </c>
       <c r="W6" t="n">
-        <v>386.3729531497727</v>
+        <v>495.118749918787</v>
       </c>
       <c r="X6" t="n">
-        <v>184.9242101207522</v>
+        <v>337.6964603549262</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.9242101207522</v>
+        <v>337.6964603549262</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.44917663565889</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="C7" t="n">
-        <v>38.44917663565889</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="D7" t="n">
-        <v>38.44917663565889</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="E7" t="n">
-        <v>38.44917663565889</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="F7" t="n">
-        <v>38.44917663565889</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="G7" t="n">
-        <v>38.44917663565889</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="H7" t="n">
-        <v>38.44917663565889</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="I7" t="n">
-        <v>38.44917663565889</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="J7" t="n">
-        <v>38.44917663565889</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="K7" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="L7" t="n">
-        <v>43.2688654556114</v>
+        <v>43.26886545561142</v>
       </c>
       <c r="M7" t="n">
-        <v>82.45690364783358</v>
+        <v>82.4569036478336</v>
       </c>
       <c r="N7" t="n">
         <v>126.1477543032699</v>
@@ -4741,34 +4743,34 @@
         <v>150.4870309381692</v>
       </c>
       <c r="P7" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="Q7" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="R7" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="S7" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="T7" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="U7" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="V7" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="W7" t="n">
-        <v>38.44917663565889</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="X7" t="n">
-        <v>38.44917663565889</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.44917663565889</v>
+        <v>15.95474044789844</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>787.6454070266949</v>
+        <v>233.3649735533508</v>
       </c>
       <c r="C8" t="n">
-        <v>632.370958782044</v>
+        <v>233.3649735533508</v>
       </c>
       <c r="D8" t="n">
-        <v>632.370958782044</v>
+        <v>233.3649735533508</v>
       </c>
       <c r="E8" t="n">
-        <v>632.370958782044</v>
+        <v>233.3649735533508</v>
       </c>
       <c r="F8" t="n">
-        <v>430.9222157530232</v>
+        <v>43.48204031633033</v>
       </c>
       <c r="G8" t="n">
-        <v>229.4734727240025</v>
+        <v>28.02472969498179</v>
       </c>
       <c r="H8" t="n">
         <v>28.02472969498179</v>
@@ -4805,49 +4807,49 @@
         <v>15.95474044789844</v>
       </c>
       <c r="K8" t="n">
-        <v>118.9697463588208</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="L8" t="n">
-        <v>299.0455979434794</v>
+        <v>164.0021908747366</v>
       </c>
       <c r="M8" t="n">
-        <v>496.4855109862226</v>
+        <v>361.4421039174798</v>
       </c>
       <c r="N8" t="n">
-        <v>648.5420722522739</v>
+        <v>558.882016960223</v>
       </c>
       <c r="O8" t="n">
-        <v>797.737022394922</v>
+        <v>708.0769671028711</v>
       </c>
       <c r="P8" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949221</v>
       </c>
       <c r="Q8" t="n">
-        <v>787.6454070266949</v>
+        <v>787.645407026695</v>
       </c>
       <c r="R8" t="n">
-        <v>787.6454070266949</v>
+        <v>636.2624596113923</v>
       </c>
       <c r="S8" t="n">
-        <v>787.6454070266949</v>
+        <v>434.8137165823715</v>
       </c>
       <c r="T8" t="n">
-        <v>787.6454070266949</v>
+        <v>434.8137165823715</v>
       </c>
       <c r="U8" t="n">
-        <v>787.6454070266949</v>
+        <v>434.8137165823715</v>
       </c>
       <c r="V8" t="n">
-        <v>787.6454070266949</v>
+        <v>434.8137165823715</v>
       </c>
       <c r="W8" t="n">
-        <v>787.6454070266949</v>
+        <v>434.8137165823715</v>
       </c>
       <c r="X8" t="n">
-        <v>787.6454070266949</v>
+        <v>434.8137165823715</v>
       </c>
       <c r="Y8" t="n">
-        <v>787.6454070266949</v>
+        <v>233.3649735533508</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>392.2738856340272</v>
+        <v>797.7370223949221</v>
       </c>
       <c r="C9" t="n">
-        <v>392.2738856340272</v>
+        <v>699.6916176479483</v>
       </c>
       <c r="D9" t="n">
-        <v>392.2738856340272</v>
+        <v>550.757207986697</v>
       </c>
       <c r="E9" t="n">
-        <v>392.2738856340272</v>
+        <v>391.5197529812415</v>
       </c>
       <c r="F9" t="n">
-        <v>245.7393276609122</v>
+        <v>244.9851950081265</v>
       </c>
       <c r="G9" t="n">
-        <v>107.0085022435277</v>
+        <v>106.254369590742</v>
       </c>
       <c r="H9" t="n">
-        <v>107.0085022435277</v>
+        <v>106.254369590742</v>
       </c>
       <c r="I9" t="n">
-        <v>16.70887310068415</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="J9" t="n">
         <v>15.95474044789844</v>
       </c>
       <c r="K9" t="n">
-        <v>15.95474044789844</v>
+        <v>136.0227247533631</v>
       </c>
       <c r="L9" t="n">
-        <v>213.3946534906416</v>
+        <v>333.4626377961063</v>
       </c>
       <c r="M9" t="n">
-        <v>410.8345665333848</v>
+        <v>530.9025508388495</v>
       </c>
       <c r="N9" t="n">
-        <v>608.274479576128</v>
+        <v>530.9025508388495</v>
       </c>
       <c r="O9" t="n">
-        <v>797.737022394922</v>
+        <v>728.3424638815927</v>
       </c>
       <c r="P9" t="n">
-        <v>797.737022394922</v>
+        <v>728.3424638815927</v>
       </c>
       <c r="Q9" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949221</v>
       </c>
       <c r="R9" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949221</v>
       </c>
       <c r="S9" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949221</v>
       </c>
       <c r="T9" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949221</v>
       </c>
       <c r="U9" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949221</v>
       </c>
       <c r="V9" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949221</v>
       </c>
       <c r="W9" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949221</v>
       </c>
       <c r="X9" t="n">
-        <v>761.9379656831161</v>
+        <v>797.7370223949221</v>
       </c>
       <c r="Y9" t="n">
-        <v>560.4892226540953</v>
+        <v>797.7370223949221</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.4491766356589</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="C10" t="n">
-        <v>38.4491766356589</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="D10" t="n">
-        <v>38.4491766356589</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="E10" t="n">
-        <v>38.4491766356589</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="F10" t="n">
-        <v>38.4491766356589</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="G10" t="n">
-        <v>38.4491766356589</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="H10" t="n">
-        <v>38.4491766356589</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="I10" t="n">
-        <v>38.4491766356589</v>
+        <v>110.2569425859518</v>
       </c>
       <c r="J10" t="n">
-        <v>38.4491766356589</v>
+        <v>15.95474044789844</v>
       </c>
       <c r="K10" t="n">
         <v>15.95474044789844</v>
@@ -4978,34 +4980,34 @@
         <v>150.4870309381692</v>
       </c>
       <c r="P10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="Q10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="R10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="S10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="T10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="U10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="V10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="W10" t="n">
-        <v>38.4491766356589</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="X10" t="n">
-        <v>38.4491766356589</v>
+        <v>150.4870309381692</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.4491766356589</v>
+        <v>150.4870309381692</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>797.737022394922</v>
+        <v>596.288279365901</v>
       </c>
       <c r="C11" t="n">
-        <v>797.737022394922</v>
+        <v>596.288279365901</v>
       </c>
       <c r="D11" t="n">
-        <v>797.737022394922</v>
+        <v>418.8522265059396</v>
       </c>
       <c r="E11" t="n">
-        <v>620.3009695349606</v>
+        <v>217.403483476919</v>
       </c>
       <c r="F11" t="n">
-        <v>418.8522265059398</v>
+        <v>217.403483476919</v>
       </c>
       <c r="G11" t="n">
-        <v>217.4034834769191</v>
+        <v>217.403483476919</v>
       </c>
       <c r="H11" t="n">
-        <v>15.95474044789844</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="I11" t="n">
-        <v>15.95474044789844</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="J11" t="n">
-        <v>15.95474044789844</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="K11" t="n">
-        <v>15.95474044789844</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="L11" t="n">
-        <v>213.3946534906416</v>
+        <v>19.79091609204734</v>
       </c>
       <c r="M11" t="n">
-        <v>410.8345665333848</v>
+        <v>205.4172832666924</v>
       </c>
       <c r="N11" t="n">
-        <v>600.2971093521787</v>
+        <v>402.8571963094354</v>
       </c>
       <c r="O11" t="n">
-        <v>797.737022394922</v>
+        <v>600.2971093521785</v>
       </c>
       <c r="P11" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="Q11" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="R11" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="S11" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="T11" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="U11" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="V11" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="W11" t="n">
-        <v>797.737022394922</v>
+        <v>596.288279365901</v>
       </c>
       <c r="X11" t="n">
-        <v>797.737022394922</v>
+        <v>596.288279365901</v>
       </c>
       <c r="Y11" t="n">
-        <v>797.737022394922</v>
+        <v>596.288279365901</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>226.6241993168125</v>
+        <v>394.8395363368804</v>
       </c>
       <c r="C12" t="n">
-        <v>52.17117003568544</v>
+        <v>394.8395363368804</v>
       </c>
       <c r="D12" t="n">
-        <v>52.17117003568544</v>
+        <v>394.8395363368804</v>
       </c>
       <c r="E12" t="n">
-        <v>15.95474044789844</v>
+        <v>394.8395363368804</v>
       </c>
       <c r="F12" t="n">
-        <v>15.95474044789844</v>
+        <v>248.3049783637653</v>
       </c>
       <c r="G12" t="n">
-        <v>15.95474044789844</v>
+        <v>110.3948653100315</v>
       </c>
       <c r="H12" t="n">
-        <v>15.95474044789844</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="I12" t="n">
-        <v>15.95474044789844</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="J12" t="n">
-        <v>15.95474044789844</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="K12" t="n">
-        <v>15.95474044789844</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="L12" t="n">
-        <v>213.3946534906416</v>
+        <v>53.43871669314571</v>
       </c>
       <c r="M12" t="n">
-        <v>410.8345665333848</v>
+        <v>151.6066269444053</v>
       </c>
       <c r="N12" t="n">
-        <v>608.274479576128</v>
+        <v>230.7842124438387</v>
       </c>
       <c r="O12" t="n">
-        <v>658.4867065125096</v>
+        <v>428.2241254865817</v>
       </c>
       <c r="P12" t="n">
-        <v>797.737022394922</v>
+        <v>625.6640385293248</v>
       </c>
       <c r="Q12" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="R12" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="S12" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="T12" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="U12" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="V12" t="n">
-        <v>797.737022394922</v>
+        <v>596.288279365901</v>
       </c>
       <c r="W12" t="n">
-        <v>797.737022394922</v>
+        <v>394.8395363368804</v>
       </c>
       <c r="X12" t="n">
-        <v>596.2882793659012</v>
+        <v>394.8395363368804</v>
       </c>
       <c r="Y12" t="n">
-        <v>394.8395363368805</v>
+        <v>394.8395363368804</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>690.1407428339683</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="C13" t="n">
-        <v>690.1407428339683</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="D13" t="n">
-        <v>690.1407428339683</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="E13" t="n">
-        <v>671.5782961091637</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="F13" t="n">
-        <v>524.6883486112533</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="G13" t="n">
-        <v>355.6885483495857</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="H13" t="n">
-        <v>197.9401757821158</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="I13" t="n">
-        <v>61.6112648807641</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="J13" t="n">
-        <v>15.95474044789844</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25693351416659</v>
+        <v>72.25693351416658</v>
       </c>
       <c r="L13" t="n">
         <v>199.830791075325</v>
@@ -5224,25 +5226,25 @@
         <v>690.1407428339683</v>
       </c>
       <c r="S13" t="n">
-        <v>690.1407428339683</v>
+        <v>488.6919998049477</v>
       </c>
       <c r="T13" t="n">
-        <v>690.1407428339683</v>
+        <v>287.2432567759271</v>
       </c>
       <c r="U13" t="n">
-        <v>690.1407428339683</v>
+        <v>85.79451374690649</v>
       </c>
       <c r="V13" t="n">
-        <v>690.1407428339683</v>
+        <v>85.79451374690649</v>
       </c>
       <c r="W13" t="n">
-        <v>690.1407428339683</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="X13" t="n">
-        <v>690.1407428339683</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="Y13" t="n">
-        <v>690.1407428339683</v>
+        <v>15.95474044789843</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>797.737022394922</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="C14" t="n">
-        <v>797.737022394922</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="D14" t="n">
-        <v>797.737022394922</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="E14" t="n">
-        <v>596.2882793659012</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="F14" t="n">
-        <v>394.8395363368805</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="G14" t="n">
-        <v>193.3907933078598</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="H14" t="n">
-        <v>15.95474044789844</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="I14" t="n">
-        <v>15.95474044789844</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="J14" t="n">
-        <v>15.95474044789844</v>
+        <v>131.7225966808481</v>
       </c>
       <c r="K14" t="n">
-        <v>213.3946534906416</v>
+        <v>131.7225966808481</v>
       </c>
       <c r="L14" t="n">
-        <v>217.2308291347905</v>
+        <v>329.1625097235912</v>
       </c>
       <c r="M14" t="n">
-        <v>253.1687511349219</v>
+        <v>526.6024227663343</v>
       </c>
       <c r="N14" t="n">
-        <v>450.608664177665</v>
+        <v>600.2971093521785</v>
       </c>
       <c r="O14" t="n">
-        <v>645.2794911679517</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="P14" t="n">
-        <v>645.2794911679517</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="Q14" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="R14" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="S14" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="T14" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="U14" t="n">
-        <v>797.737022394922</v>
+        <v>620.3009695349601</v>
       </c>
       <c r="V14" t="n">
-        <v>797.737022394922</v>
+        <v>620.3009695349601</v>
       </c>
       <c r="W14" t="n">
-        <v>797.737022394922</v>
+        <v>418.8522265059396</v>
       </c>
       <c r="X14" t="n">
-        <v>797.737022394922</v>
+        <v>217.403483476919</v>
       </c>
       <c r="Y14" t="n">
-        <v>797.737022394922</v>
+        <v>15.95474044789843</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.95474044789844</v>
+        <v>176.4108287286372</v>
       </c>
       <c r="C15" t="n">
-        <v>15.95474044789844</v>
+        <v>176.4108287286372</v>
       </c>
       <c r="D15" t="n">
-        <v>15.95474044789844</v>
+        <v>176.4108287286372</v>
       </c>
       <c r="E15" t="n">
-        <v>15.95474044789844</v>
+        <v>176.4108287286372</v>
       </c>
       <c r="F15" t="n">
-        <v>15.95474044789844</v>
+        <v>176.4108287286372</v>
       </c>
       <c r="G15" t="n">
-        <v>15.95474044789844</v>
+        <v>176.4108287286372</v>
       </c>
       <c r="H15" t="n">
-        <v>15.95474044789844</v>
+        <v>70.96804675357903</v>
       </c>
       <c r="I15" t="n">
-        <v>15.95474044789844</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="J15" t="n">
-        <v>91.21190284802827</v>
+        <v>91.21190284802826</v>
       </c>
       <c r="K15" t="n">
-        <v>288.6518158907714</v>
+        <v>91.21190284802826</v>
       </c>
       <c r="L15" t="n">
-        <v>407.8083964708328</v>
+        <v>288.6518158907713</v>
       </c>
       <c r="M15" t="n">
-        <v>470.9072969163637</v>
+        <v>475.3075534322186</v>
       </c>
       <c r="N15" t="n">
-        <v>550.0848824157971</v>
+        <v>554.4851389316519</v>
       </c>
       <c r="O15" t="n">
-        <v>600.2971093521787</v>
+        <v>604.6973658680336</v>
       </c>
       <c r="P15" t="n">
-        <v>797.737022394922</v>
+        <v>625.6640385293248</v>
       </c>
       <c r="Q15" t="n">
-        <v>797.737022394922</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="R15" t="n">
-        <v>797.737022394922</v>
+        <v>747.5236518067464</v>
       </c>
       <c r="S15" t="n">
-        <v>797.737022394922</v>
+        <v>747.5236518067464</v>
       </c>
       <c r="T15" t="n">
-        <v>797.737022394922</v>
+        <v>747.5236518067464</v>
       </c>
       <c r="U15" t="n">
-        <v>596.2882793659012</v>
+        <v>747.5236518067464</v>
       </c>
       <c r="V15" t="n">
-        <v>394.8395363368805</v>
+        <v>546.0749087777258</v>
       </c>
       <c r="W15" t="n">
-        <v>193.3907933078598</v>
+        <v>546.0749087777258</v>
       </c>
       <c r="X15" t="n">
-        <v>15.95474044789844</v>
+        <v>344.6261657487052</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.95474044789844</v>
+        <v>344.6261657487052</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>690.1407428339683</v>
+        <v>479.0318241783876</v>
       </c>
       <c r="C16" t="n">
-        <v>690.1407428339683</v>
+        <v>479.0318241783876</v>
       </c>
       <c r="D16" t="n">
-        <v>690.1407428339683</v>
+        <v>479.0318241783876</v>
       </c>
       <c r="E16" t="n">
-        <v>671.5782961091637</v>
+        <v>479.0318241783876</v>
       </c>
       <c r="F16" t="n">
-        <v>524.6883486112533</v>
+        <v>479.0318241783876</v>
       </c>
       <c r="G16" t="n">
-        <v>355.6885483495857</v>
+        <v>310.03202391672</v>
       </c>
       <c r="H16" t="n">
-        <v>197.9401757821158</v>
+        <v>152.2836513492502</v>
       </c>
       <c r="I16" t="n">
-        <v>61.6112648807641</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="J16" t="n">
-        <v>15.95474044789844</v>
+        <v>15.95474044789843</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25693351416659</v>
+        <v>72.25693351416658</v>
       </c>
       <c r="L16" t="n">
         <v>199.830791075325</v>
@@ -5455,31 +5457,31 @@
         <v>690.1407428339683</v>
       </c>
       <c r="Q16" t="n">
-        <v>690.1407428339683</v>
+        <v>660.7238236875902</v>
       </c>
       <c r="R16" t="n">
-        <v>690.1407428339683</v>
+        <v>512.5771651217742</v>
       </c>
       <c r="S16" t="n">
-        <v>690.1407428339683</v>
+        <v>479.0318241783876</v>
       </c>
       <c r="T16" t="n">
-        <v>690.1407428339683</v>
+        <v>479.0318241783876</v>
       </c>
       <c r="U16" t="n">
-        <v>690.1407428339683</v>
+        <v>479.0318241783876</v>
       </c>
       <c r="V16" t="n">
-        <v>690.1407428339683</v>
+        <v>479.0318241783876</v>
       </c>
       <c r="W16" t="n">
-        <v>690.1407428339683</v>
+        <v>479.0318241783876</v>
       </c>
       <c r="X16" t="n">
-        <v>690.1407428339683</v>
+        <v>479.0318241783876</v>
       </c>
       <c r="Y16" t="n">
-        <v>690.1407428339683</v>
+        <v>479.0318241783876</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1640.777806202926</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C17" t="n">
-        <v>1640.777806202926</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="D17" t="n">
-        <v>1595.875667274027</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E17" t="n">
         <v>1210.087414675782</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G17" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1640.777806202926</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1640.777806202926</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y17" t="n">
-        <v>1640.777806202926</v>
+        <v>2351.43802427856</v>
       </c>
     </row>
     <row r="18">
@@ -5589,34 +5591,34 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
         <v>2488.762748073964</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8405610245969</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5695,28 +5697,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T19" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U19" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V19" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W19" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X19" t="n">
-        <v>513.8405610245969</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="Y19" t="n">
-        <v>513.8405610245969</v>
+        <v>137.7043515607636</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2255.520561484594</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C20" t="n">
-        <v>1886.558044544182</v>
+        <v>2096.980396922474</v>
       </c>
       <c r="D20" t="n">
-        <v>1528.292345937431</v>
+        <v>1738.714698315724</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.087414675782</v>
+        <v>1352.926445717479</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
@@ -5753,16 +5755,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5777,25 +5779,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="21">
@@ -5832,34 +5834,34 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2515.500626187983</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="C22" t="n">
-        <v>2346.564443260076</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="D22" t="n">
-        <v>2196.44780384774</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="E22" t="n">
-        <v>2048.534710265347</v>
+        <v>296.1144832717762</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>149.2245357738658</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018222</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W22" t="n">
-        <v>2697.149091018222</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X22" t="n">
-        <v>2697.149091018222</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="Y22" t="n">
-        <v>2697.149091018222</v>
+        <v>444.0275768541693</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2118.304160219349</v>
+        <v>863.1126181035238</v>
       </c>
       <c r="C23" t="n">
-        <v>1749.341643278937</v>
+        <v>494.1501011631121</v>
       </c>
       <c r="D23" t="n">
-        <v>1749.341643278937</v>
+        <v>494.1501011631121</v>
       </c>
       <c r="E23" t="n">
-        <v>1363.553390680693</v>
+        <v>494.1501011631121</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>494.1501011631121</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>76.18629306129895</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>76.18629306129895</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6023,16 +6025,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X23" t="n">
-        <v>2697.149091018222</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y23" t="n">
-        <v>2504.904000283471</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F24" t="n">
         <v>359.3385232961344</v>
@@ -6063,52 +6065,52 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6175,22 +6177,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X25" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1161.086123514381</v>
+        <v>750.1002187247734</v>
       </c>
       <c r="C26" t="n">
-        <v>792.1236065739691</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="D26" t="n">
-        <v>792.1236065739691</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1236065739691</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
         <v>381.1377017843616</v>
@@ -6218,25 +6220,25 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6248,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.483574129469</v>
+        <v>2253.073804295901</v>
       </c>
       <c r="W26" t="n">
-        <v>1551.225455490193</v>
+        <v>1900.305149025787</v>
       </c>
       <c r="X26" t="n">
-        <v>1551.225455490193</v>
+        <v>1526.839390764707</v>
       </c>
       <c r="Y26" t="n">
-        <v>1161.086123514381</v>
+        <v>1136.700058788895</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641985</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6330,22 +6332,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6406,28 +6408,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>477.6272702879189</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>477.6272702879189</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>477.6272702879189</v>
       </c>
       <c r="V28" t="n">
-        <v>473.4444960005474</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W28" t="n">
-        <v>184.0273259635867</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X28" t="n">
-        <v>184.0273259635867</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1744.232431292459</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="C29" t="n">
-        <v>1375.269914352047</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="D29" t="n">
-        <v>1017.004215745297</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E29" t="n">
-        <v>631.2159631470527</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6491,22 +6493,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>2520.971603332393</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V29" t="n">
-        <v>2520.971603332393</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W29" t="n">
-        <v>2520.971603332393</v>
+        <v>1388.97785616398</v>
       </c>
       <c r="X29" t="n">
-        <v>2520.971603332393</v>
+        <v>1015.5120979029</v>
       </c>
       <c r="Y29" t="n">
-        <v>2130.832271356581</v>
+        <v>625.3727659270879</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6543,13 +6545,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6579,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>210.7222632714563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C31" t="n">
-        <v>210.7222632714563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D31" t="n">
-        <v>210.7222632714563</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E31" t="n">
-        <v>210.7222632714563</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F31" t="n">
-        <v>210.7222632714563</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6658,13 +6660,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>210.7222632714563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>210.7222632714563</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1289.017815868389</v>
+        <v>1404.597857825386</v>
       </c>
       <c r="C32" t="n">
-        <v>1289.017815868389</v>
+        <v>1404.597857825386</v>
       </c>
       <c r="D32" t="n">
-        <v>1289.017815868389</v>
+        <v>1046.332159218636</v>
       </c>
       <c r="E32" t="n">
-        <v>1289.017815868389</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
         <v>207.4089578252748</v>
@@ -6704,7 +6706,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6722,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.483574129469</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="W32" t="n">
-        <v>1662.483574129469</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X32" t="n">
-        <v>1289.017815868389</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y32" t="n">
-        <v>1289.017815868389</v>
+        <v>1404.597857825386</v>
       </c>
     </row>
     <row r="33">
@@ -6777,37 +6779,37 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632152</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632152</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632152</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632152</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632152</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632152</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632152</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2255.552480504987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2255.552480504987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>2255.552480504987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>2250.95263953017</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632152</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632152</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1920.409918978288</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C35" t="n">
-        <v>1551.447402037877</v>
+        <v>946.7754666214603</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.680947310029</v>
+        <v>588.5097680147098</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117851</v>
+        <v>202.7215154164656</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036444</v>
@@ -6935,16 +6937,16 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
         <v>1836.345445977174</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X35" t="n">
-        <v>2697.149091018222</v>
+        <v>2092.477155601805</v>
       </c>
       <c r="Y35" t="n">
-        <v>2307.00975904241</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036444</v>
@@ -7032,31 +7034,31 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>2442.464602812335</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W37" t="n">
-        <v>2442.464602812335</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X37" t="n">
-        <v>2425.404132605922</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y37" t="n">
-        <v>2204.611553462392</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>781.1711973675267</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C38" t="n">
-        <v>412.2086804271149</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D38" t="n">
-        <v>53.94298182036444</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036444</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036444</v>
@@ -7181,7 +7183,7 @@
         <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N38" t="n">
         <v>1836.345445977174</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.483574129469</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859355</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X38" t="n">
-        <v>1167.771037431648</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y38" t="n">
-        <v>1167.771037431648</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7247,31 @@
         <v>221.4284102423999</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632152</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632152</v>
+        <v>411.0461427127113</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632152</v>
+        <v>260.9295033003756</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632152</v>
+        <v>113.0164097179825</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632152</v>
+        <v>113.0164097179825</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S40" t="n">
-        <v>2482.860667836385</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T40" t="n">
-        <v>2255.552480504987</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U40" t="n">
-        <v>2022.963088632152</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V40" t="n">
-        <v>2022.963088632152</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W40" t="n">
-        <v>2022.963088632152</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X40" t="n">
-        <v>2022.963088632152</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632152</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>217.403483476919</v>
+        <v>218.6620486510504</v>
       </c>
       <c r="C41" t="n">
-        <v>217.403483476919</v>
+        <v>218.6620486510504</v>
       </c>
       <c r="D41" t="n">
-        <v>217.403483476919</v>
+        <v>218.6620486510504</v>
       </c>
       <c r="E41" t="n">
-        <v>15.95474044789843</v>
+        <v>218.6620486510504</v>
       </c>
       <c r="F41" t="n">
-        <v>15.95474044789843</v>
+        <v>17.21330562202985</v>
       </c>
       <c r="G41" t="n">
         <v>15.95474044789843</v>
@@ -7415,13 +7417,13 @@
         <v>15.95474044789843</v>
       </c>
       <c r="L41" t="n">
-        <v>213.3946534906415</v>
+        <v>205.4172832666924</v>
       </c>
       <c r="M41" t="n">
-        <v>410.8345665333845</v>
+        <v>402.8571963094354</v>
       </c>
       <c r="N41" t="n">
-        <v>608.2744795761275</v>
+        <v>600.2971093521785</v>
       </c>
       <c r="O41" t="n">
         <v>797.7370223949215</v>
@@ -7436,25 +7438,25 @@
         <v>797.7370223949215</v>
       </c>
       <c r="S41" t="n">
-        <v>797.7370223949215</v>
+        <v>621.5595347090916</v>
       </c>
       <c r="T41" t="n">
-        <v>797.7370223949215</v>
+        <v>621.5595347090916</v>
       </c>
       <c r="U41" t="n">
-        <v>797.7370223949215</v>
+        <v>420.110791680071</v>
       </c>
       <c r="V41" t="n">
-        <v>797.7370223949215</v>
+        <v>218.6620486510504</v>
       </c>
       <c r="W41" t="n">
-        <v>797.7370223949215</v>
+        <v>218.6620486510504</v>
       </c>
       <c r="X41" t="n">
-        <v>596.288279365901</v>
+        <v>218.6620486510504</v>
       </c>
       <c r="Y41" t="n">
-        <v>394.8395363368804</v>
+        <v>218.6620486510504</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7493,22 @@
         <v>15.95474044789843</v>
       </c>
       <c r="K42" t="n">
-        <v>15.95474044789843</v>
+        <v>213.3946534906415</v>
       </c>
       <c r="L42" t="n">
-        <v>213.3946534906415</v>
+        <v>410.8345665333845</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6796108100021</v>
+        <v>473.9334669789155</v>
       </c>
       <c r="N42" t="n">
-        <v>402.8571963094354</v>
+        <v>553.1110524783488</v>
       </c>
       <c r="O42" t="n">
-        <v>600.2971093521785</v>
+        <v>603.3232794147305</v>
       </c>
       <c r="P42" t="n">
-        <v>797.7370223949215</v>
+        <v>625.6640385293248</v>
       </c>
       <c r="Q42" t="n">
         <v>797.7370223949215</v>
@@ -7518,16 +7520,16 @@
         <v>797.7370223949215</v>
       </c>
       <c r="T42" t="n">
-        <v>598.8584745177003</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="U42" t="n">
-        <v>397.4097314886797</v>
+        <v>620.3009695349601</v>
       </c>
       <c r="V42" t="n">
-        <v>195.9609884596591</v>
+        <v>418.8522265059396</v>
       </c>
       <c r="W42" t="n">
-        <v>15.95474044789843</v>
+        <v>217.403483476919</v>
       </c>
       <c r="X42" t="n">
         <v>15.95474044789843</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.95474044789843</v>
+        <v>197.9401757821159</v>
       </c>
       <c r="C43" t="n">
-        <v>15.95474044789843</v>
+        <v>197.9401757821159</v>
       </c>
       <c r="D43" t="n">
-        <v>15.95474044789843</v>
+        <v>197.9401757821159</v>
       </c>
       <c r="E43" t="n">
-        <v>15.95474044789843</v>
+        <v>197.9401757821159</v>
       </c>
       <c r="F43" t="n">
-        <v>15.95474044789843</v>
+        <v>197.9401757821159</v>
       </c>
       <c r="G43" t="n">
-        <v>15.95474044789843</v>
+        <v>197.9401757821159</v>
       </c>
       <c r="H43" t="n">
-        <v>15.95474044789843</v>
+        <v>197.9401757821159</v>
       </c>
       <c r="I43" t="n">
-        <v>15.95474044789843</v>
+        <v>61.6112648807641</v>
       </c>
       <c r="J43" t="n">
         <v>15.95474044789843</v>
@@ -7597,22 +7599,22 @@
         <v>311.1284220927534</v>
       </c>
       <c r="T43" t="n">
-        <v>109.6796790637328</v>
+        <v>197.9401757821159</v>
       </c>
       <c r="U43" t="n">
-        <v>15.95474044789843</v>
+        <v>197.9401757821159</v>
       </c>
       <c r="V43" t="n">
-        <v>15.95474044789843</v>
+        <v>197.9401757821159</v>
       </c>
       <c r="W43" t="n">
-        <v>15.95474044789843</v>
+        <v>197.9401757821159</v>
       </c>
       <c r="X43" t="n">
-        <v>15.95474044789843</v>
+        <v>197.9401757821159</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.95474044789843</v>
+        <v>197.9401757821159</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15.95474044789843</v>
+        <v>420.110791680071</v>
       </c>
       <c r="C44" t="n">
-        <v>15.95474044789843</v>
+        <v>420.110791680071</v>
       </c>
       <c r="D44" t="n">
-        <v>15.95474044789843</v>
+        <v>218.6620486510504</v>
       </c>
       <c r="E44" t="n">
-        <v>15.95474044789843</v>
+        <v>218.6620486510504</v>
       </c>
       <c r="F44" t="n">
-        <v>15.95474044789843</v>
+        <v>218.6620486510504</v>
       </c>
       <c r="G44" t="n">
-        <v>15.95474044789843</v>
+        <v>17.21330562202985</v>
       </c>
       <c r="H44" t="n">
-        <v>15.95474044789843</v>
+        <v>17.21330562202985</v>
       </c>
       <c r="I44" t="n">
         <v>15.95474044789843</v>
@@ -7649,19 +7651,19 @@
         <v>15.95474044789843</v>
       </c>
       <c r="K44" t="n">
-        <v>23.61788218017645</v>
+        <v>188.956048866937</v>
       </c>
       <c r="L44" t="n">
-        <v>27.45405782432533</v>
+        <v>386.3959619096801</v>
       </c>
       <c r="M44" t="n">
-        <v>224.8939708670684</v>
+        <v>422.3338839098114</v>
       </c>
       <c r="N44" t="n">
-        <v>422.3338839098114</v>
+        <v>619.7737969525544</v>
       </c>
       <c r="O44" t="n">
-        <v>447.8395781252082</v>
+        <v>645.2794911679513</v>
       </c>
       <c r="P44" t="n">
         <v>645.2794911679513</v>
@@ -7670,28 +7672,28 @@
         <v>797.7370223949215</v>
       </c>
       <c r="R44" t="n">
-        <v>796.47845722079</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="S44" t="n">
-        <v>620.3009695349601</v>
+        <v>621.5595347090916</v>
       </c>
       <c r="T44" t="n">
-        <v>418.8522265059396</v>
+        <v>621.5595347090916</v>
       </c>
       <c r="U44" t="n">
-        <v>217.403483476919</v>
+        <v>621.5595347090916</v>
       </c>
       <c r="V44" t="n">
-        <v>15.95474044789843</v>
+        <v>420.110791680071</v>
       </c>
       <c r="W44" t="n">
-        <v>15.95474044789843</v>
+        <v>420.110791680071</v>
       </c>
       <c r="X44" t="n">
-        <v>15.95474044789843</v>
+        <v>420.110791680071</v>
       </c>
       <c r="Y44" t="n">
-        <v>15.95474044789843</v>
+        <v>420.110791680071</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7730,19 @@
         <v>91.21190284802825</v>
       </c>
       <c r="K45" t="n">
-        <v>91.21190284802825</v>
+        <v>288.6518158907713</v>
       </c>
       <c r="L45" t="n">
-        <v>184.450610605401</v>
+        <v>326.1357921360186</v>
       </c>
       <c r="M45" t="n">
-        <v>381.8905236481441</v>
+        <v>523.5757051787616</v>
       </c>
       <c r="N45" t="n">
-        <v>579.3304366908872</v>
+        <v>602.753290678195</v>
       </c>
       <c r="O45" t="n">
-        <v>776.7703497336303</v>
+        <v>652.9655176145766</v>
       </c>
       <c r="P45" t="n">
         <v>797.7370223949215</v>
@@ -7755,19 +7757,19 @@
         <v>797.7370223949215</v>
       </c>
       <c r="T45" t="n">
-        <v>620.3009695349601</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="U45" t="n">
-        <v>418.8522265059396</v>
+        <v>797.7370223949215</v>
       </c>
       <c r="V45" t="n">
-        <v>217.403483476919</v>
+        <v>596.288279365901</v>
       </c>
       <c r="W45" t="n">
-        <v>15.95474044789843</v>
+        <v>394.8395363368804</v>
       </c>
       <c r="X45" t="n">
-        <v>15.95474044789843</v>
+        <v>193.3907933078598</v>
       </c>
       <c r="Y45" t="n">
         <v>15.95474044789843</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>76.1778727993092</v>
+        <v>647.9680071062945</v>
       </c>
       <c r="C46" t="n">
-        <v>76.1778727993092</v>
+        <v>479.0318241783876</v>
       </c>
       <c r="D46" t="n">
-        <v>76.1778727993092</v>
+        <v>479.0318241783876</v>
       </c>
       <c r="E46" t="n">
-        <v>15.95474044789843</v>
+        <v>479.0318241783876</v>
       </c>
       <c r="F46" t="n">
-        <v>15.95474044789843</v>
+        <v>479.0318241783876</v>
       </c>
       <c r="G46" t="n">
-        <v>15.95474044789843</v>
+        <v>310.03202391672</v>
       </c>
       <c r="H46" t="n">
-        <v>15.95474044789843</v>
+        <v>152.2836513492502</v>
       </c>
       <c r="I46" t="n">
         <v>15.95474044789843</v>
@@ -7825,31 +7827,31 @@
         <v>690.1407428339681</v>
       </c>
       <c r="Q46" t="n">
-        <v>660.7238236875901</v>
+        <v>690.1407428339681</v>
       </c>
       <c r="R46" t="n">
-        <v>660.7238236875901</v>
+        <v>690.1407428339681</v>
       </c>
       <c r="S46" t="n">
-        <v>660.7238236875901</v>
+        <v>690.1407428339681</v>
       </c>
       <c r="T46" t="n">
-        <v>459.2750806585695</v>
+        <v>690.1407428339681</v>
       </c>
       <c r="U46" t="n">
-        <v>459.2750806585695</v>
+        <v>690.1407428339681</v>
       </c>
       <c r="V46" t="n">
-        <v>257.8263376295489</v>
+        <v>690.1407428339681</v>
       </c>
       <c r="W46" t="n">
-        <v>257.8263376295489</v>
+        <v>690.1407428339681</v>
       </c>
       <c r="X46" t="n">
-        <v>257.8263376295489</v>
+        <v>690.1407428339681</v>
       </c>
       <c r="Y46" t="n">
-        <v>257.8263376295489</v>
+        <v>647.9680071062945</v>
       </c>
     </row>
   </sheetData>
@@ -7985,13 +7987,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>429.7804888260031</v>
+        <v>429.7804888260032</v>
       </c>
       <c r="N2" t="n">
-        <v>383.0055497239151</v>
+        <v>428.8473191953215</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>334.9584117913395</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8061,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>337.9886353786045</v>
+        <v>337.9886353786047</v>
       </c>
       <c r="M3" t="n">
-        <v>341.5682895207486</v>
+        <v>341.5682895207489</v>
       </c>
       <c r="N3" t="n">
-        <v>211.0401142958067</v>
+        <v>211.0401142958069</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8219,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>281.2537326628315</v>
       </c>
       <c r="M5" t="n">
-        <v>429.7804888260031</v>
+        <v>429.7804888260032</v>
       </c>
       <c r="N5" t="n">
-        <v>292.439837307702</v>
+        <v>428.8473191953215</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8298,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>337.9886353786045</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>206.8865417613684</v>
+        <v>341.5682895207489</v>
       </c>
       <c r="N6" t="n">
-        <v>330.7759676820637</v>
+        <v>330.7759676820638</v>
       </c>
       <c r="O6" t="n">
-        <v>342.0305000431748</v>
+        <v>152.1991330070905</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>385.3092941890157</v>
       </c>
       <c r="M8" t="n">
         <v>429.7804888260032</v>
       </c>
       <c r="N8" t="n">
-        <v>383.0055497239155</v>
+        <v>428.8473191953215</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>259.122231202101</v>
       </c>
       <c r="L9" t="n">
         <v>337.9886353786047</v>
       </c>
       <c r="M9" t="n">
-        <v>341.5682895207488</v>
+        <v>341.5682895207489</v>
       </c>
       <c r="N9" t="n">
-        <v>330.7759676820638</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>333.9725503220141</v>
+        <v>342.0305000431749</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,19 +8695,19 @@
         <v>26.92237113682282</v>
       </c>
       <c r="L11" t="n">
-        <v>195.5593307056508</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>163.1333242854665</v>
+        <v>151.200449671226</v>
       </c>
       <c r="N11" t="n">
-        <v>149.8275750403302</v>
+        <v>157.8855247614909</v>
       </c>
       <c r="O11" t="n">
-        <v>173.6709281084307</v>
+        <v>173.6709281084306</v>
       </c>
       <c r="P11" t="n">
-        <v>12.86109185980288</v>
+        <v>212.2953474585333</v>
       </c>
       <c r="Q11" t="n">
         <v>58.31748437003577</v>
@@ -8772,22 +8774,22 @@
         <v>6.639660809448799</v>
       </c>
       <c r="L12" t="n">
-        <v>161.5716533308039</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>135.6979925224366</v>
+        <v>35.42324222800875</v>
       </c>
       <c r="N12" t="n">
-        <v>119.4568965083938</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>148.7148344508701</v>
       </c>
       <c r="P12" t="n">
-        <v>119.478427496082</v>
+        <v>178.2557983651029</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.266192922115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>52.15938665394273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>226.3566267355533</v>
+        <v>26.92237113682282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>195.5593307056507</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>163.1333242854664</v>
       </c>
       <c r="N14" t="n">
-        <v>157.885524761491</v>
+        <v>32.89034652219915</v>
       </c>
       <c r="O14" t="n">
-        <v>170.8738714897877</v>
+        <v>173.6709281084306</v>
       </c>
       <c r="P14" t="n">
         <v>12.86109185980288</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>58.31748437003577</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>206.0739164081793</v>
+        <v>6.639660809448799</v>
       </c>
       <c r="L15" t="n">
-        <v>82.49758013617584</v>
+        <v>161.5716533308038</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>124.804885955471</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>178.255798365103</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.266192922115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9719,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142005</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10680,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928319</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>251.4045252050812</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11065,7 @@
         <v>26.92237113682285</v>
       </c>
       <c r="L41" t="n">
-        <v>195.5593307056507</v>
+        <v>187.50138098449</v>
       </c>
       <c r="M41" t="n">
         <v>163.1333242854664</v>
@@ -11072,7 +11074,7 @@
         <v>157.8855247614909</v>
       </c>
       <c r="O41" t="n">
-        <v>165.6129783872699</v>
+        <v>173.6709281084306</v>
       </c>
       <c r="P41" t="n">
         <v>12.86109185980291</v>
@@ -11139,25 +11141,25 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
-        <v>6.639660809448827</v>
+        <v>206.0739164081792</v>
       </c>
       <c r="L42" t="n">
         <v>161.5716533308039</v>
       </c>
       <c r="M42" t="n">
-        <v>47.66268371093915</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>148.7148344508701</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>178.2557983651029</v>
+        <v>1.387966114447629</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.26619292211501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,13 +11299,13 @@
         <v>52.15938665394273</v>
       </c>
       <c r="K44" t="n">
-        <v>34.66291834114408</v>
+        <v>201.6711675196901</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>195.5593307056507</v>
       </c>
       <c r="M44" t="n">
-        <v>163.1333242854664</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>157.8855247614909</v>
@@ -11312,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>212.2953474585333</v>
+        <v>12.86109185980291</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>6.639660809448827</v>
+        <v>206.0739164081792</v>
       </c>
       <c r="L45" t="n">
-        <v>56.31791061830863</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>135.6979925224365</v>
       </c>
       <c r="N45" t="n">
-        <v>119.4568965083937</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>148.7148344508701</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>125.0553859788422</v>
       </c>
       <c r="Q45" t="n">
         <v>36.26619292211501</v>
@@ -23261,19 +23263,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>179.0213492893212</v>
       </c>
       <c r="E11" t="n">
-        <v>206.2686777409</v>
+        <v>182.4961144735314</v>
       </c>
       <c r="F11" t="n">
-        <v>207.4417901429809</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>214.3499144220645</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>124.4885171656267</v>
+        <v>124.4885171656268</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23318,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>149.8067131186826</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>121.7908151634918</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>10.89263054179585</v>
       </c>
       <c r="I12" t="n">
         <v>61.42221998250818</v>
@@ -23394,16 +23396,16 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>33.36633155069489</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>52.26072756218923</v>
       </c>
       <c r="X12" t="n">
-        <v>6.338729604746987</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.248440178573873</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23422,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23464,19 +23466,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>12.71128335128853</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>25.6008498593539</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>86.84761864324736</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>217.381622770573</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23501,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>182.4961144735313</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>207.4417901429809</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>214.3499144220645</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>148.2610804329954</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23549,19 +23551,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>75.56247517692756</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>149.8067131186826</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>170.2968450797387</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>186.8036830573232</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23589,10 +23591,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>6.959046739884393</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -23628,16 +23630,16 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>26.45367219013815</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
-        <v>33.36633155069478</v>
+        <v>33.36633155069489</v>
       </c>
       <c r="W15" t="n">
-        <v>52.26072756218912</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>30.11129287211577</v>
+        <v>6.338729604747101</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23659,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23674,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>178.9356514160662</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>310.2299240810726</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>43.98398258378836</v>
       </c>
     </row>
     <row r="18">
@@ -23859,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>84.32306505563267</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>48.34766866953115</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,10 +23977,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>66.9074881232292</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>10.52067551358118</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>120.1051426060693</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>72.98106384508456</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24184,7 +24186,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24212,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>129.9104381163361</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24263,16 +24265,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>195.9152988286496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24415,22 +24417,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>63.37316471551392</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24452,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -24488,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>62.53343742400835</v>
       </c>
       <c r="W26" t="n">
-        <v>239.0954312645293</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24646,10 +24648,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>110.8140341508466</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>89.80115265030469</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>159.2985669926474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>23.99190535676661</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>12.09831362247004</v>
+        <v>96.50703242634988</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24898,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24920,19 +24922,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>372.056616455341</v>
       </c>
       <c r="F32" t="n">
-        <v>73.79021906418023</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25050,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25075,28 +25077,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>97.12753845258946</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25135,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>281.9691557715224</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25157,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>74.74425144011394</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>259.5852974815713</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>208.8197898846884</v>
+        <v>96.92615468724705</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>52.2716771970276</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>229.2066580650395</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25549,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>108.8271086404091</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25594,16 +25596,16 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>56.01837628787177</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>207.0721493321188</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>182.4961144735314</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>207.4417901429811</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>412.5381904984049</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25676,25 +25678,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>51.78991190955892</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>128.3180028714045</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>170.2968450797387</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>186.8036830573232</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25758,19 +25760,19 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
-        <v>26.45367219013826</v>
+        <v>50.2262354575069</v>
       </c>
       <c r="V42" t="n">
         <v>33.36633155069489</v>
       </c>
       <c r="W42" t="n">
-        <v>73.48879762927652</v>
+        <v>52.26072756218923</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>6.338729604747101</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25804,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>12.71128335128853</v>
       </c>
       <c r="T43" t="n">
-        <v>25.6008498593539</v>
+        <v>112.9787416105531</v>
       </c>
       <c r="U43" t="n">
-        <v>193.4941850123017</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25868,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>155.2487860219526</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>214.3499144220646</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>150.6853367224711</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>53.23242305242155</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>17.01406475892742</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>51.78991190955892</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>128.3180028714045</v>
@@ -25995,10 +25997,10 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
-        <v>21.2280700670872</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
-        <v>26.45367219013826</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V45" t="n">
         <v>33.36633155069489</v>
@@ -26007,10 +26009,10 @@
         <v>52.26072756218923</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>6.338729604747101</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>30.02100344594263</v>
       </c>
     </row>
     <row r="46">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>86.81306161867252</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>45.19995918853701</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26074,13 +26076,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>25.6008498593539</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>52.70338772509763</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>176.8336449816979</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>443450.8586554758</v>
+        <v>443450.8586554757</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>443450.8586554757</v>
+        <v>443450.8586554758</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>759229.8193547467</v>
+        <v>759229.8193547465</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>759229.8193547464</v>
+        <v>759229.8193547465</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>759229.8193547467</v>
+        <v>759229.8193547465</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>443450.8586554755</v>
+        <v>443450.8586554756</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26316,13 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>203252.4088512917</v>
+        <v>203252.4088512916</v>
       </c>
       <c r="F2" t="n">
         <v>203252.4088512916</v>
@@ -26341,19 +26343,19 @@
         <v>332525.5015181213</v>
       </c>
       <c r="L2" t="n">
+        <v>332525.5015181213</v>
+      </c>
+      <c r="M2" t="n">
         <v>332525.5015181212</v>
       </c>
-      <c r="M2" t="n">
-        <v>332525.5015181213</v>
-      </c>
       <c r="N2" t="n">
-        <v>332525.5015181214</v>
+        <v>332525.5015181212</v>
       </c>
       <c r="O2" t="n">
         <v>203252.4088512916</v>
       </c>
       <c r="P2" t="n">
-        <v>203252.4088512915</v>
+        <v>203252.4088512916</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66835.00603901333</v>
+        <v>66835.00603901336</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>52180.7763718742</v>
+        <v>52180.77637187425</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,16 +26426,16 @@
         <v>361120.1056344946</v>
       </c>
       <c r="E4" t="n">
-        <v>28278.00682341985</v>
+        <v>28278.00682341984</v>
       </c>
       <c r="F4" t="n">
-        <v>28278.00682341985</v>
+        <v>28278.00682341984</v>
       </c>
       <c r="G4" t="n">
+        <v>80234.2943167757</v>
+      </c>
+      <c r="H4" t="n">
         <v>80234.29431677572</v>
-      </c>
-      <c r="H4" t="n">
-        <v>80234.2943167757</v>
       </c>
       <c r="I4" t="n">
         <v>80234.29431677572</v>
@@ -26448,13 +26450,13 @@
         <v>80234.29431677572</v>
       </c>
       <c r="M4" t="n">
+        <v>80234.29431677572</v>
+      </c>
+      <c r="N4" t="n">
         <v>80234.29431677569</v>
       </c>
-      <c r="N4" t="n">
-        <v>80234.29431677572</v>
-      </c>
       <c r="O4" t="n">
-        <v>28278.00682341985</v>
+        <v>28278.00682341984</v>
       </c>
       <c r="P4" t="n">
         <v>28278.00682341984</v>
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45753.2027404028</v>
+        <v>45753.20274040281</v>
       </c>
       <c r="C5" t="n">
-        <v>45753.2027404028</v>
+        <v>45753.20274040281</v>
       </c>
       <c r="D5" t="n">
         <v>45753.20274040281</v>
       </c>
       <c r="E5" t="n">
-        <v>20360.4146203353</v>
+        <v>20360.41462033529</v>
       </c>
       <c r="F5" t="n">
-        <v>20360.4146203353</v>
+        <v>20360.41462033529</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1609.29674194791</v>
+        <v>-1609.296741947917</v>
       </c>
       <c r="C6" t="n">
-        <v>65225.70929706554</v>
+        <v>65225.70929706547</v>
       </c>
       <c r="D6" t="n">
         <v>65225.70929706547</v>
@@ -26531,10 +26533,10 @@
         <v>-148866.4056554635</v>
       </c>
       <c r="F6" t="n">
-        <v>154613.9874075365</v>
+        <v>154613.9874075364</v>
       </c>
       <c r="G6" t="n">
-        <v>72909.63993078163</v>
+        <v>72909.63993078165</v>
       </c>
       <c r="H6" t="n">
         <v>203059.729137936</v>
@@ -26555,10 +26557,10 @@
         <v>203059.7291379361</v>
       </c>
       <c r="N6" t="n">
-        <v>203059.7291379362</v>
+        <v>203059.7291379361</v>
       </c>
       <c r="O6" t="n">
-        <v>154613.9874075365</v>
+        <v>154613.9874075364</v>
       </c>
       <c r="P6" t="n">
         <v>154613.9874075364</v>
@@ -26787,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.4342555987303</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="C4" t="n">
-        <v>199.4342555987303</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="D4" t="n">
         <v>199.4342555987305</v>
       </c>
       <c r="E4" t="n">
-        <v>199.4342555987305</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="F4" t="n">
-        <v>199.4342555987305</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.4342555987303</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>199.4342555987303</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>199.4342555987303</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>179.0213492893213</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>182.4961144735314</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4417901429811</v>
+        <v>207.4417901429809</v>
       </c>
       <c r="G2" t="n">
-        <v>215.8684819164047</v>
+        <v>389.510163124923</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27424,10 +27426,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>9.585813987514825</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27436,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>128.3180028714044</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>62.45908462761878</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,7 +27469,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,10 +27478,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27512,7 +27514,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>184.371220641468</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,28 +27618,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>165.8386361722772</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>155.2487860219526</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>250.3874495669039</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>207.4417901429809</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>215.8684819164045</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>140.0405465170366</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>184.6833151801938</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>186.8036830573232</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,7 +27706,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27740,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27749,16 +27751,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>217.5594647257384</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>33.36633155069492</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>52.26072756218926</v>
+        <v>52.26072756218909</v>
       </c>
       <c r="X6" t="n">
-        <v>6.33872960474713</v>
+        <v>49.92491853525533</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>178.3269633122123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>211.5511880088032</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>207.4417901429809</v>
+        <v>218.8919418370612</v>
       </c>
       <c r="G8" t="n">
-        <v>215.8684819164046</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>140.0405465170367</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>9.585813987514825</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>186.8036830573231</v>
       </c>
     </row>
     <row r="9">
@@ -27929,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>75.64354828881173</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27953,7 +27955,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27995,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>170.3319190587897</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.248440178573873</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28029,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>178.3269633122123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -33409,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -34705,13 +34707,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>199.4342555987303</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="N2" t="n">
-        <v>153.5924861273242</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>104.8602003696528</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,13 +34783,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>199.4342555987303</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="M3" t="n">
-        <v>199.4342555987303</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="N3" t="n">
-        <v>79.69840221247337</v>
+        <v>79.6984022124736</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34939,13 +34941,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>45.48731769284426</v>
       </c>
       <c r="M5" t="n">
-        <v>199.4342555987303</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="N5" t="n">
-        <v>63.02677371111109</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>199.4342555987303</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>64.75250783935005</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="N6" t="n">
-        <v>199.4342555987303</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="O6" t="n">
-        <v>199.4342555987303</v>
+        <v>9.602888562646095</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>149.5428792190285</v>
       </c>
       <c r="M8" t="n">
         <v>199.4342555987305</v>
       </c>
       <c r="N8" t="n">
-        <v>153.5924861273246</v>
+        <v>199.4342555987305</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>121.280792227742</v>
       </c>
       <c r="L9" t="n">
         <v>199.4342555987305</v>
@@ -35261,16 +35263,16 @@
         <v>199.4342555987305</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>199.4342555987305</v>
       </c>
-      <c r="O9" t="n">
-        <v>191.3763058775696</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>199.4342555987305</v>
+        <v>3.874924893079708</v>
       </c>
       <c r="M11" t="n">
-        <v>199.4342555987305</v>
+        <v>187.5013809844899</v>
       </c>
       <c r="N11" t="n">
-        <v>191.3763058775696</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="O11" t="n">
-        <v>199.4342555987305</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>199.4342555987305</v>
+        <v>37.86260226792655</v>
       </c>
       <c r="M12" t="n">
-        <v>199.4342555987305</v>
+        <v>99.15950530430263</v>
       </c>
       <c r="N12" t="n">
-        <v>199.4342555987305</v>
+        <v>79.97735909033671</v>
       </c>
       <c r="O12" t="n">
-        <v>50.71942114786026</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="P12" t="n">
-        <v>140.6568847297094</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3.874924893079708</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="M14" t="n">
-        <v>36.30093131326399</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="N14" t="n">
-        <v>199.4342555987305</v>
+        <v>74.43907735943863</v>
       </c>
       <c r="O14" t="n">
-        <v>196.6371989800876</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>120.3601824041024</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="M15" t="n">
-        <v>63.73626307629388</v>
+        <v>188.5411490317649</v>
       </c>
       <c r="N15" t="n">
         <v>79.97735909033671</v>
@@ -35741,10 +35743,10 @@
         <v>50.71942114786026</v>
       </c>
       <c r="P15" t="n">
-        <v>199.4342555987305</v>
+        <v>21.17845723362748</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047517</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36911,7 +36913,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36920,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -37081,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37160,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37400,10 +37402,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060959</v>
       </c>
       <c r="N38" t="n">
         <v>478.8956552492236</v>
@@ -37561,7 +37563,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>199.4342555987304</v>
+        <v>191.3763058775696</v>
       </c>
       <c r="M41" t="n">
         <v>199.4342555987304</v>
@@ -37792,7 +37794,7 @@
         <v>199.4342555987304</v>
       </c>
       <c r="O41" t="n">
-        <v>191.3763058775696</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="L42" t="n">
         <v>199.4342555987304</v>
       </c>
       <c r="M42" t="n">
-        <v>111.398946787233</v>
+        <v>63.73626307629385</v>
       </c>
       <c r="N42" t="n">
         <v>79.97735909033668</v>
       </c>
       <c r="O42" t="n">
-        <v>199.4342555987304</v>
+        <v>50.71942114786023</v>
       </c>
       <c r="P42" t="n">
-        <v>199.4342555987304</v>
+        <v>22.56642334807508</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>7.740547204321233</v>
+        <v>174.7487963828673</v>
       </c>
       <c r="L44" t="n">
-        <v>3.87492489307968</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="M44" t="n">
-        <v>199.4342555987304</v>
+        <v>36.30093131326393</v>
       </c>
       <c r="N44" t="n">
         <v>199.4342555987304</v>
@@ -38032,7 +38034,7 @@
         <v>25.76332749029979</v>
       </c>
       <c r="P44" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38096,22 +38098,22 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>199.4342555987304</v>
       </c>
       <c r="L45" t="n">
-        <v>94.18051288623515</v>
+        <v>37.86260226792652</v>
       </c>
       <c r="M45" t="n">
         <v>199.4342555987304</v>
       </c>
       <c r="N45" t="n">
-        <v>199.4342555987304</v>
+        <v>79.97735909033668</v>
       </c>
       <c r="O45" t="n">
-        <v>199.4342555987304</v>
+        <v>50.71942114786023</v>
       </c>
       <c r="P45" t="n">
-        <v>21.17845723362746</v>
+        <v>146.2338432124696</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_9_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_9_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>858317.8459084413</v>
+        <v>815057.7325449573</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2781523.791147223</v>
+        <v>1384172.199406463</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9530324.193536609</v>
+        <v>8399778.573036585</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8653788.236782424</v>
+        <v>9125823.929609768</v>
       </c>
     </row>
     <row r="11">
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>199.4342555987305</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>25.79257439021207</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>38.88501798484931</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V2" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>110.249414360697</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="W4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>199.4342555987305</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G5" t="n">
-        <v>199.4342555987305</v>
+        <v>16.93162886246721</v>
       </c>
       <c r="H5" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>25.79257439021207</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>155.8480666682221</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>187.9841039046502</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>97.06495069950401</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>117.8162772781929</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>175.6616923313617</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>81.10726075608808</v>
       </c>
       <c r="H11" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>180.7203706105861</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>61.83379056986699</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.9305580501643</v>
       </c>
       <c r="H12" t="n">
-        <v>93.4957236135117</v>
+        <v>108.2471285920753</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>75.17852303819707</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.5002136733761</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>199.4342555987304</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>199.4342555987304</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>57.17158902616989</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>48.98614154286044</v>
       </c>
       <c r="S13" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>69.14137556601797</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>180.7203706105861</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.7172156429431</v>
       </c>
       <c r="U14" t="n">
-        <v>175.6616923313617</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>199.4342555987304</v>
+        <v>207.3779143326082</v>
       </c>
       <c r="X14" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,25 +1688,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>138.8183467113815</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.9305580501643</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>54.46317324262379</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.5002136733761</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>199.4342555987304</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>33.20988753395271</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>166.9710735165841</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>73.46100831328349</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>342.2539560722652</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>82.92375604299517</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>201.330287938294</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>105.3161963213388</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>396.3553702281303</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>94.32873841396635</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>386.0835249964916</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>22.02087812852517</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2408,7 +2408,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933832</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.5310119231965</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>128.7835007017901</v>
+        <v>192.5627265154902</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>215.5278181602327</v>
       </c>
       <c r="V26" t="n">
-        <v>265.2188210461265</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>101.3315047991723</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>304.8745447086562</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>325.2490633606464</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>70.80276983270103</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>205.1478855987996</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>9.873753616920807</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>128.0041052504323</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3119,7 +3119,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G33" t="n">
         <v>136.5310119231965</v>
@@ -3164,7 +3164,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8879277888678</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>89.30725745073089</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>37.83808333974876</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>147.2907482601402</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>17.68403113376343</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>137.6226750441173</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>338.900685608421</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>275.4805812731073</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>79.3036300146486</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>58.48269361864185</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>36.77627667615837</v>
       </c>
       <c r="F41" t="n">
-        <v>199.4342555987304</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>1.245979522390105</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>199.4342555987304</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>91.44195578628739</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
-        <v>175.6616923313617</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V42" t="n">
-        <v>199.4342555987304</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>199.4342555987304</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,16 +3912,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>65.23699284296814</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>112.0563638475311</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>199.4342555987304</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.245979522390105</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>349.9983660402726</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2.413619850843479</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>199.4342555987304</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>199.4342555987304</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>199.4342555987304</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.6616923313617</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4155,7 +4155,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>176.7166301627353</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.75100837039689</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>243.4565889215778</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C2" t="n">
-        <v>243.4565889215778</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D2" t="n">
-        <v>243.4565889215778</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E2" t="n">
-        <v>243.4565889215778</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="F2" t="n">
-        <v>42.0078458925571</v>
+        <v>70.33566960306241</v>
       </c>
       <c r="G2" t="n">
-        <v>15.95474044789844</v>
+        <v>54.87835898171387</v>
       </c>
       <c r="H2" t="n">
-        <v>15.95474044789844</v>
+        <v>54.87835898171387</v>
       </c>
       <c r="I2" t="n">
-        <v>15.95474044789844</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J2" t="n">
-        <v>15.95474044789844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>118.9697463588208</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>299.0455979434794</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M2" t="n">
-        <v>496.4855109862226</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N2" t="n">
-        <v>693.9254240289658</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O2" t="n">
-        <v>797.7370223949221</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>797.7370223949221</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>797.7370223949221</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>646.3540749796193</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S2" t="n">
-        <v>444.9053319505986</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T2" t="n">
-        <v>444.9053319505986</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U2" t="n">
-        <v>444.9053319505986</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V2" t="n">
-        <v>243.4565889215778</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W2" t="n">
-        <v>243.4565889215778</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X2" t="n">
-        <v>243.4565889215778</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.4565889215778</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>528.3521559277397</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C3" t="n">
-        <v>416.9891111189548</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D3" t="n">
-        <v>268.0547014577036</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E3" t="n">
-        <v>268.0547014577036</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F3" t="n">
-        <v>268.0547014577036</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G3" t="n">
-        <v>129.3238760403191</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H3" t="n">
-        <v>15.95474044789844</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I3" t="n">
-        <v>15.95474044789844</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>15.95474044789844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>141.3123005057358</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>338.7522135484791</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M3" t="n">
-        <v>536.1921265912223</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N3" t="n">
-        <v>615.0935447815712</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>615.0935447815712</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>797.7370223949221</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>797.7370223949221</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>696.5674929478078</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>696.5674929478078</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>696.5674929478078</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>696.5674929478078</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V3" t="n">
-        <v>696.5674929478078</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W3" t="n">
-        <v>696.5674929478078</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X3" t="n">
-        <v>696.5674929478078</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y3" t="n">
-        <v>696.5674929478078</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.95474044789844</v>
+        <v>109.0687871126148</v>
       </c>
       <c r="C4" t="n">
-        <v>15.95474044789844</v>
+        <v>109.0687871126148</v>
       </c>
       <c r="D4" t="n">
-        <v>15.95474044789844</v>
+        <v>109.0687871126148</v>
       </c>
       <c r="E4" t="n">
-        <v>15.95474044789844</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="F4" t="n">
-        <v>15.95474044789844</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="G4" t="n">
-        <v>15.95474044789844</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="H4" t="n">
-        <v>15.95474044789844</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="I4" t="n">
-        <v>15.95474044789844</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="J4" t="n">
-        <v>15.95474044789844</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="K4" t="n">
-        <v>15.95474044789844</v>
+        <v>41.99639902664363</v>
       </c>
       <c r="L4" t="n">
-        <v>43.26886545561142</v>
+        <v>69.3105240343566</v>
       </c>
       <c r="M4" t="n">
-        <v>82.4569036478336</v>
+        <v>108.4985622265788</v>
       </c>
       <c r="N4" t="n">
-        <v>126.1477543032699</v>
+        <v>152.1894128820151</v>
       </c>
       <c r="O4" t="n">
-        <v>150.4870309381692</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P4" t="n">
-        <v>147.7381009027081</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="Q4" t="n">
-        <v>147.7381009027081</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="R4" t="n">
-        <v>147.7381009027081</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="S4" t="n">
-        <v>147.7381009027081</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="T4" t="n">
-        <v>147.7381009027081</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="U4" t="n">
-        <v>147.7381009027081</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="V4" t="n">
-        <v>147.7381009027081</v>
+        <v>153.6467390108255</v>
       </c>
       <c r="W4" t="n">
-        <v>15.95474044789844</v>
+        <v>153.6467390108255</v>
       </c>
       <c r="X4" t="n">
-        <v>15.95474044789844</v>
+        <v>109.0687871126148</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.95474044789844</v>
+        <v>109.0687871126148</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>646.3540749796193</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C5" t="n">
-        <v>646.3540749796193</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D5" t="n">
-        <v>646.3540749796193</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E5" t="n">
-        <v>646.3540749796193</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="F5" t="n">
-        <v>444.9053319505986</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="G5" t="n">
-        <v>243.4565889215778</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H5" t="n">
-        <v>42.0078458925571</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I5" t="n">
-        <v>15.95474044789844</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J5" t="n">
-        <v>15.95474044789844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>118.9697463588208</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>164.0021908747366</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4421039174798</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N5" t="n">
-        <v>558.882016960223</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O5" t="n">
-        <v>708.0769671028711</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>797.7370223949221</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>797.7370223949221</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>646.3540749796193</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S5" t="n">
-        <v>646.3540749796193</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T5" t="n">
-        <v>646.3540749796193</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U5" t="n">
-        <v>646.3540749796193</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V5" t="n">
-        <v>646.3540749796193</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W5" t="n">
-        <v>646.3540749796193</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X5" t="n">
-        <v>646.3540749796193</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y5" t="n">
-        <v>646.3540749796193</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337.6964603549262</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="C6" t="n">
-        <v>163.2434310737992</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D6" t="n">
-        <v>163.2434310737992</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E6" t="n">
-        <v>163.2434310737992</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F6" t="n">
-        <v>16.70887310068415</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G6" t="n">
-        <v>16.70887310068415</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H6" t="n">
-        <v>16.70887310068415</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I6" t="n">
-        <v>16.70887310068415</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J6" t="n">
-        <v>15.95474044789844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>141.3123005057358</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>141.3123005057358</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7522135484791</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N6" t="n">
-        <v>536.1921265912223</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O6" t="n">
-        <v>545.6989862682419</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>728.3424638815927</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>797.7370223949221</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>696.5674929478078</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S6" t="n">
-        <v>696.5674929478078</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T6" t="n">
-        <v>696.5674929478078</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U6" t="n">
-        <v>696.5674929478078</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="V6" t="n">
-        <v>696.5674929478078</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="W6" t="n">
-        <v>495.118749918787</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="X6" t="n">
-        <v>337.6964603549262</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="Y6" t="n">
-        <v>337.6964603549262</v>
+        <v>4.284706443124001</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.95474044789844</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="C7" t="n">
-        <v>15.95474044789844</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="D7" t="n">
-        <v>15.95474044789844</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="E7" t="n">
-        <v>15.95474044789844</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="F7" t="n">
-        <v>15.95474044789844</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="G7" t="n">
-        <v>15.95474044789844</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="H7" t="n">
-        <v>15.95474044789844</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="I7" t="n">
-        <v>15.95474044789844</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="J7" t="n">
-        <v>15.95474044789844</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K7" t="n">
-        <v>15.95474044789844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>43.26886545561142</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>82.4569036478336</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>126.1477543032699</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>150.4870309381692</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>150.4870309381692</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.4870309381692</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R7" t="n">
-        <v>150.4870309381692</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S7" t="n">
-        <v>150.4870309381692</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T7" t="n">
-        <v>150.4870309381692</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="U7" t="n">
-        <v>150.4870309381692</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="V7" t="n">
-        <v>150.4870309381692</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="W7" t="n">
-        <v>150.4870309381692</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="X7" t="n">
-        <v>150.4870309381692</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.95474044789844</v>
+        <v>135.3139342451479</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.3649735533508</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C8" t="n">
-        <v>233.3649735533508</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D8" t="n">
-        <v>233.3649735533508</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E8" t="n">
-        <v>233.3649735533508</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F8" t="n">
-        <v>43.48204031633033</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G8" t="n">
-        <v>28.02472969498179</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H8" t="n">
-        <v>28.02472969498179</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>28.02472969498179</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>15.95474044789844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>15.95474044789844</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>164.0021908747366</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>361.4421039174798</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>558.882016960223</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>708.0769671028711</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>797.7370223949221</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>787.645407026695</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>636.2624596113923</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>434.8137165823715</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>434.8137165823715</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>434.8137165823715</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>434.8137165823715</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>434.8137165823715</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>434.8137165823715</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>233.3649735533508</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>797.7370223949221</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C9" t="n">
-        <v>699.6916176479483</v>
+        <v>139.0416164480418</v>
       </c>
       <c r="D9" t="n">
-        <v>550.757207986697</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>391.5197529812415</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>244.9851950081265</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>106.254369590742</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>106.254369590742</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>15.95474044789844</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>15.95474044789844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>136.0227247533631</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>333.4626377961063</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>530.9025508388495</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>530.9025508388495</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>728.3424638815927</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>728.3424638815927</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>797.7370223949221</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>797.7370223949221</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>797.7370223949221</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>797.7370223949221</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>797.7370223949221</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>797.7370223949221</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>797.7370223949221</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X9" t="n">
-        <v>797.7370223949221</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y9" t="n">
-        <v>797.7370223949221</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.4870309381692</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>150.4870309381692</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>150.4870309381692</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4870309381692</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>150.4870309381692</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>150.4870309381692</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>150.4870309381692</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>110.2569425859518</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>15.95474044789844</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>15.95474044789844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.26886545561142</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.4569036478336</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.1477543032699</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.4870309381692</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>150.4870309381692</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.4870309381692</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>150.4870309381692</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>150.4870309381692</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>150.4870309381692</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>150.4870309381692</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>150.4870309381692</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>150.4870309381692</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>150.4870309381692</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.4870309381692</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>596.288279365901</v>
+        <v>1070.404142976457</v>
       </c>
       <c r="C11" t="n">
-        <v>596.288279365901</v>
+        <v>1070.404142976457</v>
       </c>
       <c r="D11" t="n">
-        <v>418.8522265059396</v>
+        <v>712.138444369707</v>
       </c>
       <c r="E11" t="n">
-        <v>217.403483476919</v>
+        <v>712.138444369707</v>
       </c>
       <c r="F11" t="n">
-        <v>217.403483476919</v>
+        <v>301.1525395800995</v>
       </c>
       <c r="G11" t="n">
-        <v>217.403483476919</v>
+        <v>219.2260135638489</v>
       </c>
       <c r="H11" t="n">
-        <v>15.95474044789843</v>
+        <v>219.2260135638489</v>
       </c>
       <c r="I11" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="J11" t="n">
-        <v>15.95474044789843</v>
+        <v>89.70241732045235</v>
       </c>
       <c r="K11" t="n">
-        <v>15.95474044789843</v>
+        <v>289.9138037238546</v>
       </c>
       <c r="L11" t="n">
-        <v>19.79091609204734</v>
+        <v>590.5703600013153</v>
       </c>
       <c r="M11" t="n">
-        <v>205.4172832666924</v>
+        <v>941.7152546494196</v>
       </c>
       <c r="N11" t="n">
-        <v>402.8571963094354</v>
+        <v>1283.910043257802</v>
       </c>
       <c r="O11" t="n">
-        <v>600.2971093521785</v>
+        <v>1561.847240808269</v>
       </c>
       <c r="P11" t="n">
-        <v>797.7370223949215</v>
+        <v>1761.38582570573</v>
       </c>
       <c r="Q11" t="n">
-        <v>797.7370223949215</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="R11" t="n">
-        <v>797.7370223949215</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="S11" t="n">
-        <v>797.7370223949215</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="T11" t="n">
-        <v>797.7370223949215</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="U11" t="n">
-        <v>797.7370223949215</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="V11" t="n">
-        <v>797.7370223949215</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="W11" t="n">
-        <v>596.288279365901</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="X11" t="n">
-        <v>596.288279365901</v>
+        <v>1460.543474952269</v>
       </c>
       <c r="Y11" t="n">
-        <v>596.288279365901</v>
+        <v>1070.404142976457</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>394.8395363368804</v>
+        <v>728.5027029461746</v>
       </c>
       <c r="C12" t="n">
-        <v>394.8395363368804</v>
+        <v>728.5027029461746</v>
       </c>
       <c r="D12" t="n">
-        <v>394.8395363368804</v>
+        <v>666.0443286331777</v>
       </c>
       <c r="E12" t="n">
-        <v>394.8395363368804</v>
+        <v>506.8068736277221</v>
       </c>
       <c r="F12" t="n">
-        <v>248.3049783637653</v>
+        <v>360.2723156546071</v>
       </c>
       <c r="G12" t="n">
-        <v>110.3948653100315</v>
+        <v>221.9586206544411</v>
       </c>
       <c r="H12" t="n">
-        <v>15.95474044789843</v>
+        <v>112.6180867230519</v>
       </c>
       <c r="I12" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="J12" t="n">
-        <v>15.95474044789843</v>
+        <v>74.56648351263013</v>
       </c>
       <c r="K12" t="n">
-        <v>15.95474044789843</v>
+        <v>265.9410458001892</v>
       </c>
       <c r="L12" t="n">
-        <v>53.43871669314571</v>
+        <v>584.6721581704903</v>
       </c>
       <c r="M12" t="n">
-        <v>151.6066269444053</v>
+        <v>1008.595554371594</v>
       </c>
       <c r="N12" t="n">
-        <v>230.7842124438387</v>
+        <v>1459.445954834164</v>
       </c>
       <c r="O12" t="n">
-        <v>428.2241254865817</v>
+        <v>1805.470312231153</v>
       </c>
       <c r="P12" t="n">
-        <v>625.6640385293248</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="Q12" t="n">
-        <v>797.7370223949215</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="R12" t="n">
-        <v>797.7370223949215</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="S12" t="n">
-        <v>797.7370223949215</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="T12" t="n">
-        <v>797.7370223949215</v>
+        <v>1633.503966876606</v>
       </c>
       <c r="U12" t="n">
-        <v>797.7370223949215</v>
+        <v>1633.503966876606</v>
       </c>
       <c r="V12" t="n">
-        <v>596.288279365901</v>
+        <v>1398.351858644863</v>
       </c>
       <c r="W12" t="n">
-        <v>394.8395363368804</v>
+        <v>1144.114501916661</v>
       </c>
       <c r="X12" t="n">
-        <v>394.8395363368804</v>
+        <v>936.2630017111285</v>
       </c>
       <c r="Y12" t="n">
-        <v>394.8395363368804</v>
+        <v>728.5027029461746</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="C13" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="D13" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="E13" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="F13" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="G13" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="H13" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="I13" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="J13" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25693351416658</v>
+        <v>54.4545825185777</v>
       </c>
       <c r="L13" t="n">
-        <v>199.830791075325</v>
+        <v>132.7261268640592</v>
       </c>
       <c r="M13" t="n">
-        <v>344.728659793355</v>
+        <v>225.6416189905568</v>
       </c>
       <c r="N13" t="n">
-        <v>491.615797477784</v>
+        <v>321.7824048124758</v>
       </c>
       <c r="O13" t="n">
-        <v>611.2735479870241</v>
+        <v>394.5676858416287</v>
       </c>
       <c r="P13" t="n">
-        <v>690.1407428339683</v>
+        <v>433.327385579036</v>
       </c>
       <c r="Q13" t="n">
-        <v>690.1407428339683</v>
+        <v>375.578305754622</v>
       </c>
       <c r="R13" t="n">
-        <v>690.1407428339683</v>
+        <v>326.0973547012276</v>
       </c>
       <c r="S13" t="n">
-        <v>488.6919998049477</v>
+        <v>326.0973547012276</v>
       </c>
       <c r="T13" t="n">
-        <v>287.2432567759271</v>
+        <v>326.0973547012276</v>
       </c>
       <c r="U13" t="n">
-        <v>85.79451374690649</v>
+        <v>326.0973547012276</v>
       </c>
       <c r="V13" t="n">
-        <v>85.79451374690649</v>
+        <v>326.0973547012276</v>
       </c>
       <c r="W13" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="X13" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426698</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.95474044789843</v>
+        <v>1016.000170951701</v>
       </c>
       <c r="C14" t="n">
-        <v>15.95474044789843</v>
+        <v>1016.000170951701</v>
       </c>
       <c r="D14" t="n">
-        <v>15.95474044789843</v>
+        <v>1016.000170951701</v>
       </c>
       <c r="E14" t="n">
-        <v>15.95474044789843</v>
+        <v>630.2119183534564</v>
       </c>
       <c r="F14" t="n">
-        <v>15.95474044789843</v>
+        <v>219.2260135638489</v>
       </c>
       <c r="G14" t="n">
-        <v>15.95474044789843</v>
+        <v>219.2260135638489</v>
       </c>
       <c r="H14" t="n">
-        <v>15.95474044789843</v>
+        <v>219.2260135638489</v>
       </c>
       <c r="I14" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="J14" t="n">
-        <v>131.7225966808481</v>
+        <v>89.7024173204523</v>
       </c>
       <c r="K14" t="n">
-        <v>131.7225966808481</v>
+        <v>289.9138037238545</v>
       </c>
       <c r="L14" t="n">
-        <v>329.1625097235912</v>
+        <v>590.5703600013152</v>
       </c>
       <c r="M14" t="n">
-        <v>526.6024227663343</v>
+        <v>941.7152546494195</v>
       </c>
       <c r="N14" t="n">
-        <v>600.2971093521785</v>
+        <v>1283.910043257802</v>
       </c>
       <c r="O14" t="n">
-        <v>797.7370223949215</v>
+        <v>1561.847240808269</v>
       </c>
       <c r="P14" t="n">
-        <v>797.7370223949215</v>
+        <v>1761.38582570573</v>
       </c>
       <c r="Q14" t="n">
-        <v>797.7370223949215</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="R14" t="n">
-        <v>797.7370223949215</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="S14" t="n">
-        <v>797.7370223949215</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="T14" t="n">
-        <v>797.7370223949215</v>
+        <v>1612.072651755831</v>
       </c>
       <c r="U14" t="n">
-        <v>620.3009695349601</v>
+        <v>1612.072651755831</v>
       </c>
       <c r="V14" t="n">
-        <v>620.3009695349601</v>
+        <v>1612.072651755831</v>
       </c>
       <c r="W14" t="n">
-        <v>418.8522265059396</v>
+        <v>1402.600011015822</v>
       </c>
       <c r="X14" t="n">
-        <v>217.403483476919</v>
+        <v>1402.600011015822</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.95474044789843</v>
+        <v>1402.600011015822</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.4108287286372</v>
+        <v>795.4394741578492</v>
       </c>
       <c r="C15" t="n">
-        <v>176.4108287286372</v>
+        <v>620.9864448767222</v>
       </c>
       <c r="D15" t="n">
-        <v>176.4108287286372</v>
+        <v>480.7658926430035</v>
       </c>
       <c r="E15" t="n">
-        <v>176.4108287286372</v>
+        <v>321.528437637548</v>
       </c>
       <c r="F15" t="n">
-        <v>176.4108287286372</v>
+        <v>174.993879664433</v>
       </c>
       <c r="G15" t="n">
-        <v>176.4108287286372</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="H15" t="n">
-        <v>70.96804675357903</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="I15" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="J15" t="n">
-        <v>91.21190284802826</v>
+        <v>74.56648351263013</v>
       </c>
       <c r="K15" t="n">
-        <v>91.21190284802826</v>
+        <v>265.9410458001892</v>
       </c>
       <c r="L15" t="n">
-        <v>288.6518158907713</v>
+        <v>584.6721581704903</v>
       </c>
       <c r="M15" t="n">
-        <v>475.3075534322186</v>
+        <v>1008.595554371594</v>
       </c>
       <c r="N15" t="n">
-        <v>554.4851389316519</v>
+        <v>1105.691602272959</v>
       </c>
       <c r="O15" t="n">
-        <v>604.6973658680336</v>
+        <v>1451.715959669948</v>
       </c>
       <c r="P15" t="n">
-        <v>625.6640385293248</v>
+        <v>1712.427944849847</v>
       </c>
       <c r="Q15" t="n">
-        <v>797.7370223949215</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="R15" t="n">
-        <v>747.5236518067464</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="S15" t="n">
-        <v>747.5236518067464</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="T15" t="n">
-        <v>747.5236518067464</v>
+        <v>1633.503966876606</v>
       </c>
       <c r="U15" t="n">
-        <v>747.5236518067464</v>
+        <v>1633.503966876606</v>
       </c>
       <c r="V15" t="n">
-        <v>546.0749087777258</v>
+        <v>1633.503966876606</v>
       </c>
       <c r="W15" t="n">
-        <v>546.0749087777258</v>
+        <v>1379.266610148404</v>
       </c>
       <c r="X15" t="n">
-        <v>344.6261657487052</v>
+        <v>1171.415109942871</v>
       </c>
       <c r="Y15" t="n">
-        <v>344.6261657487052</v>
+        <v>963.6548111779173</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>479.0318241783876</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="C16" t="n">
-        <v>479.0318241783876</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="D16" t="n">
-        <v>479.0318241783876</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="E16" t="n">
-        <v>479.0318241783876</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="F16" t="n">
-        <v>479.0318241783876</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="G16" t="n">
-        <v>310.03202391672</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="H16" t="n">
-        <v>152.2836513492502</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="I16" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="J16" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426698</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25693351416658</v>
+        <v>54.4545825185777</v>
       </c>
       <c r="L16" t="n">
-        <v>199.830791075325</v>
+        <v>132.7261268640592</v>
       </c>
       <c r="M16" t="n">
-        <v>344.728659793355</v>
+        <v>225.6416189905568</v>
       </c>
       <c r="N16" t="n">
-        <v>491.615797477784</v>
+        <v>321.7824048124758</v>
       </c>
       <c r="O16" t="n">
-        <v>611.2735479870241</v>
+        <v>394.5676858416287</v>
       </c>
       <c r="P16" t="n">
-        <v>690.1407428339683</v>
+        <v>433.327385579036</v>
       </c>
       <c r="Q16" t="n">
-        <v>660.7238236875902</v>
+        <v>433.327385579036</v>
       </c>
       <c r="R16" t="n">
-        <v>512.5771651217742</v>
+        <v>433.327385579036</v>
       </c>
       <c r="S16" t="n">
-        <v>479.0318241783876</v>
+        <v>433.327385579036</v>
       </c>
       <c r="T16" t="n">
-        <v>479.0318241783876</v>
+        <v>433.327385579036</v>
       </c>
       <c r="U16" t="n">
-        <v>479.0318241783876</v>
+        <v>433.327385579036</v>
       </c>
       <c r="V16" t="n">
-        <v>479.0318241783876</v>
+        <v>433.327385579036</v>
       </c>
       <c r="W16" t="n">
-        <v>479.0318241783876</v>
+        <v>433.327385579036</v>
       </c>
       <c r="X16" t="n">
-        <v>479.0318241783876</v>
+        <v>205.3378346810186</v>
       </c>
       <c r="Y16" t="n">
-        <v>479.0318241783876</v>
+        <v>36.68018466426698</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1964.838184214438</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="C17" t="n">
-        <v>1595.875667274026</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D17" t="n">
-        <v>1595.875667274026</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E17" t="n">
-        <v>1210.087414675782</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861747</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y17" t="n">
-        <v>2351.43802427856</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5606,13 +5606,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5621,16 +5621,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137.7043515607636</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5697,28 +5697,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>365.6939024587809</v>
+        <v>524.7650569960363</v>
       </c>
       <c r="U19" t="n">
-        <v>365.6939024587809</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V19" t="n">
-        <v>365.6939024587809</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W19" t="n">
-        <v>365.6939024587809</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X19" t="n">
-        <v>137.7043515607636</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y19" t="n">
-        <v>137.7043515607636</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2465.942913862886</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="C20" t="n">
-        <v>2096.980396922474</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D20" t="n">
-        <v>1738.714698315724</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E20" t="n">
-        <v>1352.926445717479</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F20" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>2465.942913862886</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V20" t="n">
-        <v>2465.942913862886</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W20" t="n">
-        <v>2465.942913862886</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X20" t="n">
-        <v>2465.942913862886</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y20" t="n">
-        <v>2465.942913862886</v>
+        <v>1322.340737411353</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
@@ -5834,7 +5834,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
         <v>670.8219208598708</v>
@@ -5867,7 +5867,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>444.0275768541693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>444.0275768541693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>444.0275768541693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>296.1144832717762</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>149.2245357738658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5931,31 +5931,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>698.7120650600561</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V22" t="n">
-        <v>444.0275768541693</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W22" t="n">
-        <v>444.0275768541693</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X22" t="n">
-        <v>444.0275768541693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>444.0275768541693</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>863.1126181035238</v>
+        <v>1735.606436744359</v>
       </c>
       <c r="C23" t="n">
-        <v>494.1501011631121</v>
+        <v>1366.643919803947</v>
       </c>
       <c r="D23" t="n">
-        <v>494.1501011631121</v>
+        <v>1008.378221197197</v>
       </c>
       <c r="E23" t="n">
-        <v>494.1501011631121</v>
+        <v>1008.378221197197</v>
       </c>
       <c r="F23" t="n">
-        <v>494.1501011631121</v>
+        <v>597.3923164075895</v>
       </c>
       <c r="G23" t="n">
-        <v>76.18629306129895</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>76.18629306129895</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6019,22 +6019,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674651</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.317548404537</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X23" t="n">
-        <v>1639.851790143457</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y23" t="n">
-        <v>1249.712458167646</v>
+        <v>1735.606436744359</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
         <v>359.3385232961344</v>
@@ -6065,52 +6065,52 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036444</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036444</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6177,22 +6177,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>598.0446400632119</v>
+        <v>533.621179645333</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>533.621179645333</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>533.621179645333</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036444</v>
+        <v>533.621179645333</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036444</v>
+        <v>533.621179645333</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036444</v>
+        <v>533.621179645333</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>750.1002187247734</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C26" t="n">
-        <v>381.1377017843616</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D26" t="n">
-        <v>381.1377017843616</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E26" t="n">
-        <v>381.1377017843616</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6253,25 +6253,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2520.971603332393</v>
+        <v>2479.444224189705</v>
       </c>
       <c r="V26" t="n">
-        <v>2253.073804295901</v>
+        <v>2148.381336846134</v>
       </c>
       <c r="W26" t="n">
-        <v>1900.305149025787</v>
+        <v>1795.61268157602</v>
       </c>
       <c r="X26" t="n">
-        <v>1526.839390764707</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y26" t="n">
-        <v>1136.700058788895</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
@@ -6308,13 +6308,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6329,25 +6329,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.942782082032</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C28" t="n">
-        <v>222.942782082032</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6408,28 +6408,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>477.6272702879189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>477.6272702879189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>477.6272702879189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>222.942782082032</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="X28" t="n">
-        <v>222.942782082032</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.942782082032</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>625.3727659270879</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="C29" t="n">
-        <v>625.3727659270879</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="D29" t="n">
-        <v>625.3727659270879</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E29" t="n">
-        <v>625.3727659270879</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F29" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
         <v>207.4089578252748</v>
@@ -6463,13 +6463,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>1717.512263598976</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W29" t="n">
-        <v>1388.97785616398</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X29" t="n">
-        <v>1015.5120979029</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y29" t="n">
-        <v>625.3727659270879</v>
+        <v>2057.295728843236</v>
       </c>
     </row>
     <row r="30">
@@ -6524,10 +6524,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
         <v>359.3385232961342</v>
@@ -6536,7 +6536,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6545,13 +6545,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C31" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D31" t="n">
-        <v>578.0123447940985</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E31" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1404.597857825386</v>
+        <v>1731.411330760289</v>
       </c>
       <c r="C32" t="n">
-        <v>1404.597857825386</v>
+        <v>1362.448813819877</v>
       </c>
       <c r="D32" t="n">
-        <v>1046.332159218636</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E32" t="n">
-        <v>1036.358670716696</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F32" t="n">
-        <v>625.3727659270879</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G32" t="n">
         <v>207.4089578252748</v>
@@ -6697,7 +6697,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2520.971603332392</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2520.971603332392</v>
+        <v>2118.011170824411</v>
       </c>
       <c r="V32" t="n">
-        <v>2520.971603332392</v>
+        <v>2118.011170824411</v>
       </c>
       <c r="W32" t="n">
-        <v>2168.202948062278</v>
+        <v>2118.011170824411</v>
       </c>
       <c r="X32" t="n">
-        <v>1794.737189801198</v>
+        <v>2118.011170824411</v>
       </c>
       <c r="Y32" t="n">
-        <v>1404.597857825386</v>
+        <v>2118.011170824411</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961344</v>
@@ -6776,28 +6776,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641985</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6815,7 +6815,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C34" t="n">
-        <v>559.1928012785273</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D34" t="n">
-        <v>409.0761618661916</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E34" t="n">
-        <v>261.1630682837985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>92.16326802213086</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>92.16326802213086</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6891,19 +6891,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1315.737983561872</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="C35" t="n">
-        <v>946.7754666214603</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="D35" t="n">
-        <v>588.5097680147098</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="E35" t="n">
-        <v>202.7215154164656</v>
+        <v>636.2575203257545</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036444</v>
+        <v>225.271615536147</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>225.271615536147</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036444</v>
@@ -6973,16 +6973,16 @@
         <v>2465.942913862885</v>
       </c>
       <c r="V35" t="n">
-        <v>2465.942913862885</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W35" t="n">
-        <v>2465.942913862885</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="X35" t="n">
-        <v>2092.477155601805</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y35" t="n">
-        <v>1702.337823625994</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P36" t="n">
         <v>2525.076107152625</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036444</v>
+        <v>361.80799380017</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036444</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H37" t="n">
         <v>53.94298182036444</v>
@@ -7125,22 +7125,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>361.80799380017</v>
       </c>
       <c r="V37" t="n">
-        <v>473.4444960005474</v>
+        <v>361.80799380017</v>
       </c>
       <c r="W37" t="n">
-        <v>184.0273259635867</v>
+        <v>361.80799380017</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036444</v>
+        <v>361.80799380017</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036444</v>
+        <v>361.80799380017</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1268.680947310029</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.680947310029</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.680947310029</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117851</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036444</v>
@@ -7183,7 +7183,7 @@
         <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
         <v>1836.345445977174</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V38" t="n">
-        <v>2418.885877611043</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W38" t="n">
-        <v>2418.885877611043</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X38" t="n">
-        <v>2045.420119349963</v>
+        <v>2092.477155601805</v>
       </c>
       <c r="Y38" t="n">
-        <v>1655.280787374151</v>
+        <v>2092.477155601805</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>579.9823256406182</v>
+        <v>291.7960311703076</v>
       </c>
       <c r="C40" t="n">
-        <v>411.0461427127113</v>
+        <v>291.7960311703076</v>
       </c>
       <c r="D40" t="n">
-        <v>260.9295033003756</v>
+        <v>291.7960311703076</v>
       </c>
       <c r="E40" t="n">
-        <v>113.0164097179825</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F40" t="n">
-        <v>113.0164097179825</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H40" t="n">
         <v>53.94298182036444</v>
@@ -7356,28 +7356,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>579.9823256406182</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W40" t="n">
-        <v>579.9823256406182</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X40" t="n">
-        <v>579.9823256406182</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y40" t="n">
-        <v>579.9823256406182</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>218.6620486510504</v>
+        <v>1271.740168714441</v>
       </c>
       <c r="C41" t="n">
-        <v>218.6620486510504</v>
+        <v>902.7776517740294</v>
       </c>
       <c r="D41" t="n">
-        <v>218.6620486510504</v>
+        <v>902.7776517740294</v>
       </c>
       <c r="E41" t="n">
-        <v>218.6620486510504</v>
+        <v>865.6298975556876</v>
       </c>
       <c r="F41" t="n">
-        <v>17.21330562202985</v>
+        <v>454.6439927660801</v>
       </c>
       <c r="G41" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="H41" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="I41" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="J41" t="n">
-        <v>15.95474044789843</v>
+        <v>152.4480408972167</v>
       </c>
       <c r="K41" t="n">
-        <v>15.95474044789843</v>
+        <v>152.4480408972167</v>
       </c>
       <c r="L41" t="n">
-        <v>205.4172832666924</v>
+        <v>156.2842165413656</v>
       </c>
       <c r="M41" t="n">
-        <v>402.8571963094354</v>
+        <v>610.2015017616693</v>
       </c>
       <c r="N41" t="n">
-        <v>600.2971093521785</v>
+        <v>973.205588172301</v>
       </c>
       <c r="O41" t="n">
-        <v>797.7370223949215</v>
+        <v>1375.703461837816</v>
       </c>
       <c r="P41" t="n">
-        <v>797.7370223949215</v>
+        <v>1681.551701986378</v>
       </c>
       <c r="Q41" t="n">
-        <v>797.7370223949215</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="R41" t="n">
-        <v>797.7370223949215</v>
+        <v>1778.980543743842</v>
       </c>
       <c r="S41" t="n">
-        <v>621.5595347090916</v>
+        <v>1602.803056058012</v>
       </c>
       <c r="T41" t="n">
-        <v>621.5595347090916</v>
+        <v>1602.803056058012</v>
       </c>
       <c r="U41" t="n">
-        <v>420.110791680071</v>
+        <v>1602.803056058012</v>
       </c>
       <c r="V41" t="n">
-        <v>218.6620486510504</v>
+        <v>1271.740168714441</v>
       </c>
       <c r="W41" t="n">
-        <v>218.6620486510504</v>
+        <v>1271.740168714441</v>
       </c>
       <c r="X41" t="n">
-        <v>218.6620486510504</v>
+        <v>1271.740168714441</v>
       </c>
       <c r="Y41" t="n">
-        <v>218.6620486510504</v>
+        <v>1271.740168714441</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>15.95474044789843</v>
+        <v>383.4229882059172</v>
       </c>
       <c r="C42" t="n">
-        <v>15.95474044789843</v>
+        <v>291.0573763005764</v>
       </c>
       <c r="D42" t="n">
-        <v>15.95474044789843</v>
+        <v>142.1229666393251</v>
       </c>
       <c r="E42" t="n">
-        <v>15.95474044789843</v>
+        <v>142.1229666393251</v>
       </c>
       <c r="F42" t="n">
-        <v>15.95474044789843</v>
+        <v>142.1229666393251</v>
       </c>
       <c r="G42" t="n">
-        <v>15.95474044789843</v>
+        <v>142.1229666393251</v>
       </c>
       <c r="H42" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="I42" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="J42" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="K42" t="n">
-        <v>213.3946534906415</v>
+        <v>291.9275051053655</v>
       </c>
       <c r="L42" t="n">
-        <v>410.8345665333845</v>
+        <v>696.5434232010373</v>
       </c>
       <c r="M42" t="n">
-        <v>473.9334669789155</v>
+        <v>759.6423236465682</v>
       </c>
       <c r="N42" t="n">
-        <v>553.1110524783488</v>
+        <v>885.555512712579</v>
       </c>
       <c r="O42" t="n">
-        <v>603.3232794147305</v>
+        <v>1325.691435732923</v>
       </c>
       <c r="P42" t="n">
-        <v>625.6640385293248</v>
+        <v>1661.936249347752</v>
       </c>
       <c r="Q42" t="n">
-        <v>797.7370223949215</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="R42" t="n">
-        <v>797.7370223949215</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="S42" t="n">
-        <v>797.7370223949215</v>
+        <v>1675.836260857265</v>
       </c>
       <c r="T42" t="n">
-        <v>797.7370223949215</v>
+        <v>1476.957712980044</v>
       </c>
       <c r="U42" t="n">
-        <v>620.3009695349601</v>
+        <v>1248.788088950883</v>
       </c>
       <c r="V42" t="n">
-        <v>418.8522265059396</v>
+        <v>1013.635980719141</v>
       </c>
       <c r="W42" t="n">
-        <v>217.403483476919</v>
+        <v>759.3986239909391</v>
       </c>
       <c r="X42" t="n">
-        <v>15.95474044789843</v>
+        <v>759.3986239909391</v>
       </c>
       <c r="Y42" t="n">
-        <v>15.95474044789843</v>
+        <v>551.6383252259852</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>197.9401757821159</v>
+        <v>421.6925767049048</v>
       </c>
       <c r="C43" t="n">
-        <v>197.9401757821159</v>
+        <v>421.6925767049048</v>
       </c>
       <c r="D43" t="n">
-        <v>197.9401757821159</v>
+        <v>271.5759372925691</v>
       </c>
       <c r="E43" t="n">
-        <v>197.9401757821159</v>
+        <v>271.5759372925691</v>
       </c>
       <c r="F43" t="n">
-        <v>197.9401757821159</v>
+        <v>271.5759372925691</v>
       </c>
       <c r="G43" t="n">
-        <v>197.9401757821159</v>
+        <v>102.5761370309015</v>
       </c>
       <c r="H43" t="n">
-        <v>197.9401757821159</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="I43" t="n">
-        <v>61.6112648807641</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="J43" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="K43" t="n">
-        <v>72.25693351416656</v>
+        <v>92.98237773053511</v>
       </c>
       <c r="L43" t="n">
-        <v>199.830791075325</v>
+        <v>220.5562352916935</v>
       </c>
       <c r="M43" t="n">
-        <v>344.7286597933548</v>
+        <v>365.4541040097234</v>
       </c>
       <c r="N43" t="n">
-        <v>491.6157974777839</v>
+        <v>512.3412416941526</v>
       </c>
       <c r="O43" t="n">
-        <v>611.273547987024</v>
+        <v>631.9989922033927</v>
       </c>
       <c r="P43" t="n">
-        <v>690.1407428339681</v>
+        <v>710.8661870503369</v>
       </c>
       <c r="Q43" t="n">
-        <v>660.7238236875901</v>
+        <v>710.8661870503369</v>
       </c>
       <c r="R43" t="n">
-        <v>512.577165121774</v>
+        <v>710.8661870503369</v>
       </c>
       <c r="S43" t="n">
-        <v>311.1284220927534</v>
+        <v>710.8661870503369</v>
       </c>
       <c r="T43" t="n">
-        <v>197.9401757821159</v>
+        <v>710.8661870503369</v>
       </c>
       <c r="U43" t="n">
-        <v>197.9401757821159</v>
+        <v>421.6925767049048</v>
       </c>
       <c r="V43" t="n">
-        <v>197.9401757821159</v>
+        <v>421.6925767049048</v>
       </c>
       <c r="W43" t="n">
-        <v>197.9401757821159</v>
+        <v>421.6925767049048</v>
       </c>
       <c r="X43" t="n">
-        <v>197.9401757821159</v>
+        <v>421.6925767049048</v>
       </c>
       <c r="Y43" t="n">
-        <v>197.9401757821159</v>
+        <v>421.6925767049048</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>420.110791680071</v>
+        <v>394.9458832710175</v>
       </c>
       <c r="C44" t="n">
-        <v>420.110791680071</v>
+        <v>394.9458832710175</v>
       </c>
       <c r="D44" t="n">
-        <v>218.6620486510504</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="E44" t="n">
-        <v>218.6620486510504</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="F44" t="n">
-        <v>218.6620486510504</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="G44" t="n">
-        <v>17.21330562202985</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="H44" t="n">
-        <v>17.21330562202985</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="I44" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="J44" t="n">
-        <v>15.95474044789843</v>
+        <v>152.4480408972167</v>
       </c>
       <c r="K44" t="n">
-        <v>188.956048866937</v>
+        <v>152.4480408972167</v>
       </c>
       <c r="L44" t="n">
-        <v>386.3959619096801</v>
+        <v>569.7688189463115</v>
       </c>
       <c r="M44" t="n">
-        <v>422.3338839098114</v>
+        <v>1023.686104166615</v>
       </c>
       <c r="N44" t="n">
-        <v>619.7737969525544</v>
+        <v>1064.819347695482</v>
       </c>
       <c r="O44" t="n">
-        <v>645.2794911679513</v>
+        <v>1467.317221360997</v>
       </c>
       <c r="P44" t="n">
-        <v>645.2794911679513</v>
+        <v>1773.16546150956</v>
       </c>
       <c r="Q44" t="n">
-        <v>797.7370223949215</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="R44" t="n">
-        <v>797.7370223949215</v>
+        <v>1778.980543743842</v>
       </c>
       <c r="S44" t="n">
-        <v>621.5595347090916</v>
+        <v>1778.980543743842</v>
       </c>
       <c r="T44" t="n">
-        <v>621.5595347090916</v>
+        <v>1778.980543743842</v>
       </c>
       <c r="U44" t="n">
-        <v>621.5595347090916</v>
+        <v>1525.218758381933</v>
       </c>
       <c r="V44" t="n">
-        <v>420.110791680071</v>
+        <v>1525.218758381933</v>
       </c>
       <c r="W44" t="n">
-        <v>420.110791680071</v>
+        <v>1525.218758381933</v>
       </c>
       <c r="X44" t="n">
-        <v>420.110791680071</v>
+        <v>1171.685055310951</v>
       </c>
       <c r="Y44" t="n">
-        <v>420.110791680071</v>
+        <v>781.5457233351392</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>15.95474044789843</v>
+        <v>519.3050786121007</v>
       </c>
       <c r="C45" t="n">
-        <v>15.95474044789843</v>
+        <v>344.8520493309737</v>
       </c>
       <c r="D45" t="n">
-        <v>15.95474044789843</v>
+        <v>195.9176396697225</v>
       </c>
       <c r="E45" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="F45" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="G45" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="H45" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="I45" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="J45" t="n">
-        <v>91.21190284802825</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="K45" t="n">
-        <v>288.6518158907713</v>
+        <v>291.9275051053655</v>
       </c>
       <c r="L45" t="n">
-        <v>326.1357921360186</v>
+        <v>696.5434232010373</v>
       </c>
       <c r="M45" t="n">
-        <v>523.5757051787616</v>
+        <v>806.3779272131457</v>
       </c>
       <c r="N45" t="n">
-        <v>602.753290678195</v>
+        <v>885.555512712579</v>
       </c>
       <c r="O45" t="n">
-        <v>652.9655176145766</v>
+        <v>1325.691435732923</v>
       </c>
       <c r="P45" t="n">
-        <v>797.7370223949215</v>
+        <v>1661.936249347752</v>
       </c>
       <c r="Q45" t="n">
-        <v>797.7370223949215</v>
+        <v>1834.009233213349</v>
       </c>
       <c r="R45" t="n">
-        <v>797.7370223949215</v>
+        <v>1783.795862625173</v>
       </c>
       <c r="S45" t="n">
-        <v>797.7370223949215</v>
+        <v>1625.62289026909</v>
       </c>
       <c r="T45" t="n">
-        <v>797.7370223949215</v>
+        <v>1426.744342391868</v>
       </c>
       <c r="U45" t="n">
-        <v>797.7370223949215</v>
+        <v>1426.744342391868</v>
       </c>
       <c r="V45" t="n">
-        <v>596.288279365901</v>
+        <v>1191.592234160126</v>
       </c>
       <c r="W45" t="n">
-        <v>394.8395363368804</v>
+        <v>937.3548774319243</v>
       </c>
       <c r="X45" t="n">
-        <v>193.3907933078598</v>
+        <v>729.5033772263914</v>
       </c>
       <c r="Y45" t="n">
-        <v>15.95474044789843</v>
+        <v>521.7430784614376</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>647.9680071062945</v>
+        <v>532.3645404213113</v>
       </c>
       <c r="C46" t="n">
-        <v>479.0318241783876</v>
+        <v>363.4283574934044</v>
       </c>
       <c r="D46" t="n">
-        <v>479.0318241783876</v>
+        <v>363.4283574934044</v>
       </c>
       <c r="E46" t="n">
-        <v>479.0318241783876</v>
+        <v>363.4283574934044</v>
       </c>
       <c r="F46" t="n">
-        <v>479.0318241783876</v>
+        <v>363.4283574934044</v>
       </c>
       <c r="G46" t="n">
-        <v>310.03202391672</v>
+        <v>194.4285572317368</v>
       </c>
       <c r="H46" t="n">
-        <v>152.2836513492502</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="I46" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="J46" t="n">
-        <v>15.95474044789843</v>
+        <v>36.68018466426697</v>
       </c>
       <c r="K46" t="n">
-        <v>72.25693351416656</v>
+        <v>92.98237773053511</v>
       </c>
       <c r="L46" t="n">
-        <v>199.830791075325</v>
+        <v>220.5562352916935</v>
       </c>
       <c r="M46" t="n">
-        <v>344.7286597933548</v>
+        <v>365.4541040097234</v>
       </c>
       <c r="N46" t="n">
-        <v>491.6157974777839</v>
+        <v>512.3412416941526</v>
       </c>
       <c r="O46" t="n">
-        <v>611.273547987024</v>
+        <v>631.9989922033927</v>
       </c>
       <c r="P46" t="n">
-        <v>690.1407428339681</v>
+        <v>710.8661870503369</v>
       </c>
       <c r="Q46" t="n">
-        <v>690.1407428339681</v>
+        <v>710.8661870503369</v>
       </c>
       <c r="R46" t="n">
-        <v>690.1407428339681</v>
+        <v>710.8661870503369</v>
       </c>
       <c r="S46" t="n">
-        <v>690.1407428339681</v>
+        <v>710.8661870503369</v>
       </c>
       <c r="T46" t="n">
-        <v>690.1407428339681</v>
+        <v>710.8661870503369</v>
       </c>
       <c r="U46" t="n">
-        <v>690.1407428339681</v>
+        <v>532.3645404213113</v>
       </c>
       <c r="V46" t="n">
-        <v>690.1407428339681</v>
+        <v>532.3645404213113</v>
       </c>
       <c r="W46" t="n">
-        <v>690.1407428339681</v>
+        <v>532.3645404213113</v>
       </c>
       <c r="X46" t="n">
-        <v>690.1407428339681</v>
+        <v>532.3645404213113</v>
       </c>
       <c r="Y46" t="n">
-        <v>647.9680071062945</v>
+        <v>532.3645404213113</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>429.7804888260032</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
-        <v>428.8473191953215</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>334.9584117913395</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>337.9886353786047</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>341.5682895207489</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N3" t="n">
-        <v>211.0401142958069</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>281.2537326628315</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M5" t="n">
-        <v>429.7804888260032</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>428.8473191953215</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>341.5682895207489</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>330.7759676820638</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O6" t="n">
-        <v>152.1991330070905</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>385.3092941890157</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>429.7804888260032</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>428.8473191953215</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>259.122231202101</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>337.9886353786047</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>341.5682895207489</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>342.0305000431749</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.15938665394273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>26.92237113682282</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>151.200449671226</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>157.8855247614909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>173.6709281084306</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>212.2953474585333</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.31748437003577</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>6.639660809448799</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>35.42324222800875</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>148.7148344508701</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>178.2557983651029</v>
+        <v>83.94452197558982</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>87.26790555049328</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K14" t="n">
-        <v>26.92237113682282</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>195.5593307056507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>163.1333242854664</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>32.89034652219915</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>173.6709281084306</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>12.86109185980288</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.31748437003577</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>6.639660809448799</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>161.5716533308038</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>124.804885955471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>122.0147454938507</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>145.0294169142005</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10682,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928319</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>52.15938665394273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>26.92237113682285</v>
       </c>
       <c r="L41" t="n">
-        <v>187.50138098449</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>163.1333242854664</v>
+        <v>422.2013769900732</v>
       </c>
       <c r="N41" t="n">
-        <v>157.8855247614909</v>
+        <v>325.1220635169339</v>
       </c>
       <c r="O41" t="n">
-        <v>173.6709281084306</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>12.86109185980291</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.3174843700358</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,22 +11141,22 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
-        <v>206.0739164081792</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>161.5716533308039</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>47.20768037028027</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>1.387966114447629</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>52.15938665394273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>201.6711675196901</v>
+        <v>26.92237113682285</v>
       </c>
       <c r="L44" t="n">
-        <v>195.5593307056507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>422.2013769900732</v>
       </c>
       <c r="N44" t="n">
-        <v>157.8855247614909</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>12.86109185980291</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>119.775839626388</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>206.0739164081792</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>135.6979925224365</v>
+        <v>47.20768037028026</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>125.0553859788422</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.26619292211501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23263,22 +23263,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>179.0213492893212</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>182.4961144735314</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>333.423658616</v>
       </c>
       <c r="H11" t="n">
-        <v>124.4885171656268</v>
+        <v>331.570419558287</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>101.386396512973</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>191.4322636515616</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>219.7172156429431</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>251.2839074563927</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>149.8067131186826</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23342,10 +23342,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>85.61127499477176</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>10.89263054179585</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>74.51814466017001</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>164.0126367014202</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9142137182744</v>
       </c>
       <c r="V12" t="n">
-        <v>33.36633155069489</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>52.26072756218923</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>167.6447683102764</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>159.1490415517819</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>145.0389644964652</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>68.88205901018011</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>112.7403421587641</v>
       </c>
       <c r="S13" t="n">
-        <v>12.71128335128853</v>
+        <v>217.9830836791033</v>
       </c>
       <c r="T13" t="n">
-        <v>25.6008498593539</v>
+        <v>226.4663240405932</v>
       </c>
       <c r="U13" t="n">
-        <v>86.84761864324736</v>
+        <v>286.3001451174991</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>217.381622770573</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>414.530919372088</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>331.570419558287</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>101.386396512973</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>191.4322636515616</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>75.56247517692756</v>
+        <v>251.2839074563927</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>149.8067131186826</v>
+        <v>141.8630543848048</v>
       </c>
       <c r="X14" t="n">
-        <v>170.2968450797387</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>186.8036830573232</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>8.626718853257245</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>108.2471285920753</v>
       </c>
       <c r="I15" t="n">
-        <v>6.959046739884393</v>
+        <v>75.17852303819707</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>74.51814466017001</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>164.0126367014202</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9142137182744</v>
       </c>
       <c r="V15" t="n">
-        <v>33.36633155069489</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>6.338729604747101</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.6447683102764</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>159.1490415517819</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>145.0389644964652</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>68.88205901018011</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>57.17158902616989</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>161.7264837016246</v>
       </c>
       <c r="S16" t="n">
-        <v>178.9356514160662</v>
+        <v>217.9830836791033</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>226.4663240405932</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3001451174991</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>51.61357983551065</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>309.2728333501971</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>43.98398258378836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>84.32306505563267</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23937,16 +23937,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>23.70481751979031</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>259.9566954496688</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>10.52067551358118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>72.98106384508456</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24183,7 +24183,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>27.70064502430341</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>129.9104381163361</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24417,16 +24417,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>96.25160475629417</v>
+        <v>32.47237894259405</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>35.6963493480566</v>
       </c>
       <c r="V26" t="n">
-        <v>62.53343742400835</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24648,10 +24648,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>110.8140341508466</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24660,10 +24660,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>114.7731302731595</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,19 +24685,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>49.80849691202673</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>23.99190535676661</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>96.50703242634988</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24891,7 +24891,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>19.88721985928464</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>372.056616455341</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>123.220062257857</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>59.30821556748147</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>97.12753845258946</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>45.199959188537</v>
@@ -25131,7 +25131,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>259.5852974815713</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>306.2387416305937</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923383</v>
@@ -25365,19 +25365,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>148.6591991978605</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>96.92615468724705</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>43.02968446384074</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -25450,7 +25450,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>52.2716771970276</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>67.13033263192057</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.8271086404091</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923383</v>
@@ -25596,7 +25596,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25608,7 +25608,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25630,19 +25630,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>345.1540933961034</v>
       </c>
       <c r="F41" t="n">
-        <v>207.4417901429811</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>412.5381904984049</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>51.78991190955892</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>128.3180028714045</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>81.26654320202834</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25724,7 +25724,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>61.42221998250819</v>
@@ -25757,25 +25757,25 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>50.2262354575069</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>33.36633155069489</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>52.26072756218923</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>6.338729604747101</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>90.93389599882701</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>12.71128335128853</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>112.9787416105531</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>155.2487860219526</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>214.3499144220646</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>150.6853367224711</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>128.3180028714045</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>19.7327346381964</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25943,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>164.1195637990239</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.8879277888686</v>
       </c>
       <c r="V45" t="n">
-        <v>33.36633155069489</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>52.26072756218923</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>6.338729604747101</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>30.02100344594263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
         <v>45.19995918853701</v>
@@ -26079,7 +26079,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>109.5652440792424</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>176.8336449816979</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1035512.915118162</v>
+        <v>1018632.990509323</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1035512.915118162</v>
+        <v>1018632.990509323</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1035512.915118162</v>
+        <v>1040032.286735279</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>443450.8586554757</v>
+        <v>614348.9550342395</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>443450.8586554758</v>
+        <v>614348.9550342397</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>443450.8586554757</v>
+        <v>615732.0435228322</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>443450.8586554756</v>
+        <v>615732.0435228321</v>
       </c>
     </row>
   </sheetData>
@@ -26316,34 +26316,34 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>203252.4088512916</v>
+        <v>262736.9555884309</v>
       </c>
       <c r="F2" t="n">
-        <v>203252.4088512916</v>
+        <v>262736.9555884309</v>
       </c>
       <c r="G2" t="n">
-        <v>332525.5015181212</v>
+        <v>332525.5015181214</v>
       </c>
       <c r="H2" t="n">
         <v>332525.5015181212</v>
       </c>
       <c r="I2" t="n">
-        <v>332525.5015181212</v>
+        <v>332525.5015181213</v>
       </c>
       <c r="J2" t="n">
-        <v>332525.5015181212</v>
+        <v>332525.5015181213</v>
       </c>
       <c r="K2" t="n">
         <v>332525.5015181213</v>
       </c>
       <c r="L2" t="n">
-        <v>332525.5015181213</v>
+        <v>332525.5015181212</v>
       </c>
       <c r="M2" t="n">
         <v>332525.5015181212</v>
@@ -26352,10 +26352,10 @@
         <v>332525.5015181212</v>
       </c>
       <c r="O2" t="n">
-        <v>203252.4088512916</v>
+        <v>273780.6084716548</v>
       </c>
       <c r="P2" t="n">
-        <v>203252.4088512916</v>
+        <v>273780.6084716547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66835.00603901336</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>61157.49184790745</v>
       </c>
       <c r="E3" t="n">
-        <v>303480.3930630001</v>
+        <v>219182.2894942064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>130150.0892071543</v>
+        <v>203564.6653126936</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>52180.77637187425</v>
+        <v>11546.91810999088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>49829.09174670427</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>54198.88439295672</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361120.1056344946</v>
+        <v>386095.5528670329</v>
       </c>
       <c r="C4" t="n">
-        <v>361120.1056344946</v>
+        <v>386095.5528670329</v>
       </c>
       <c r="D4" t="n">
-        <v>361120.1056344946</v>
+        <v>354433.2672769093</v>
       </c>
       <c r="E4" t="n">
-        <v>28278.00682341984</v>
+        <v>77798.35504820556</v>
       </c>
       <c r="F4" t="n">
-        <v>28278.00682341984</v>
+        <v>77798.35504820556</v>
       </c>
       <c r="G4" t="n">
         <v>80234.2943167757</v>
@@ -26441,25 +26441,25 @@
         <v>80234.29431677572</v>
       </c>
       <c r="J4" t="n">
-        <v>80234.29431677572</v>
+        <v>80234.2943167757</v>
       </c>
       <c r="K4" t="n">
-        <v>80234.29431677572</v>
+        <v>80234.2943167757</v>
       </c>
       <c r="L4" t="n">
-        <v>80234.29431677572</v>
+        <v>80234.2943167757</v>
       </c>
       <c r="M4" t="n">
         <v>80234.29431677572</v>
       </c>
       <c r="N4" t="n">
-        <v>80234.29431677569</v>
+        <v>80234.2943167757</v>
       </c>
       <c r="O4" t="n">
-        <v>28278.00682341984</v>
+        <v>56624.07126939428</v>
       </c>
       <c r="P4" t="n">
-        <v>28278.00682341984</v>
+        <v>56624.07126939428</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45753.20274040281</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>45753.20274040281</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>45753.20274040281</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>20360.41462033529</v>
+        <v>32062.31718005108</v>
       </c>
       <c r="F5" t="n">
-        <v>20360.41462033529</v>
+        <v>32062.31718005108</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>20360.41462033529</v>
+        <v>36111.75222477538</v>
       </c>
       <c r="P5" t="n">
-        <v>20360.41462033529</v>
+        <v>36111.75222477538</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1609.296741947917</v>
+        <v>34902.92272002866</v>
       </c>
       <c r="C6" t="n">
-        <v>65225.70929706547</v>
+        <v>49692.62872427299</v>
       </c>
       <c r="D6" t="n">
-        <v>65225.70929706547</v>
+        <v>8226.989783384437</v>
       </c>
       <c r="E6" t="n">
-        <v>-148866.4056554635</v>
+        <v>-75408.70448549006</v>
       </c>
       <c r="F6" t="n">
-        <v>154613.9874075364</v>
+        <v>143773.5850087164</v>
       </c>
       <c r="G6" t="n">
-        <v>72909.63993078165</v>
+        <v>-6573.349920576575</v>
       </c>
       <c r="H6" t="n">
-        <v>203059.729137936</v>
+        <v>196991.3153921168</v>
       </c>
       <c r="I6" t="n">
-        <v>203059.729137936</v>
+        <v>196991.3153921169</v>
       </c>
       <c r="J6" t="n">
-        <v>150878.9527660618</v>
+        <v>185444.397282126</v>
       </c>
       <c r="K6" t="n">
-        <v>203059.7291379361</v>
+        <v>196991.3153921169</v>
       </c>
       <c r="L6" t="n">
-        <v>203059.7291379361</v>
+        <v>147162.2236454126</v>
       </c>
       <c r="M6" t="n">
-        <v>203059.7291379361</v>
+        <v>142792.43099916</v>
       </c>
       <c r="N6" t="n">
-        <v>203059.7291379361</v>
+        <v>196991.3153921169</v>
       </c>
       <c r="O6" t="n">
-        <v>154613.9874075364</v>
+        <v>172422.2454470369</v>
       </c>
       <c r="P6" t="n">
-        <v>154613.9874075364</v>
+        <v>172422.2454470369</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>191.9897630829437</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>191.9897630829437</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.4342555987305</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>199.4342555987305</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>199.4342555987305</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>199.4342555987304</v>
+        <v>458.5023083033373</v>
       </c>
       <c r="F4" t="n">
-        <v>199.4342555987304</v>
+        <v>458.5023083033373</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26819,7 +26819,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545555</v>
@@ -26828,10 +26828,10 @@
         <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>199.4342555987304</v>
+        <v>458.5023083033371</v>
       </c>
       <c r="P4" t="n">
-        <v>199.4342555987304</v>
+        <v>458.5023083033371</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>191.9897630829437</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>185.753901134143</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.4342555987305</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>217.4880194256782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>474.8530171558251</v>
+        <v>215.7849644512183</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>199.4342555987305</v>
+        <v>44.13217237922856</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>217.4880194256782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>199.4342555987305</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>217.4880194256782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>474.8530171558251</v>
+        <v>215.7849644512183</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27390,19 +27390,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4417901429809</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>389.510163124923</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>171.5908715855566</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,22 +27423,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>9.585813987514825</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V2" t="n">
-        <v>128.3180028714044</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>62.45908462761878</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>99.21849105784395</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27514,7 +27514,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>232.2059530579065</v>
       </c>
       <c r="W4" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>207.4417901429809</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G5" t="n">
-        <v>215.8684819164045</v>
+        <v>398.3711086526678</v>
       </c>
       <c r="H5" t="n">
-        <v>140.0405465170366</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>184.6833151801938</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27706,7 +27706,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>187.8163559756081</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>52.26072756218909</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>49.92491853525533</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27785,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>125.4893577570098</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>218.8919418370612</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>298.998522982632</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>9.585813987514825</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>186.8036830573231</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,31 +27931,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>75.64354828881173</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>29.62878828644581</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>0.7718181430470092</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>7.904382557480185</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>29.75551895981985</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>65.50710011843616</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>98.17816211361607</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>121.798691608891</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>135.5245125103033</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>137.7174408092356</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>130.0426741493119</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>110.9884137428388</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>83.34767649496777</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>48.48272142817673</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>17.58780593468374</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>3.378633921188285</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.06174545144376072</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.4129591130463317</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>3.988315644421152</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>14.218109813218</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>39.01558006197821</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>66.68384063608244</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>89.6646530322748</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>104.6344208802043</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>107.4037826514668</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>98.25347809396646</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>78.85707835004908</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>52.71386853552824</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>25.63968949247313</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>7.670534402417603</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>1.664515021445521</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.02716836270041657</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.3462110481823574</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>3.078130955657689</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>10.41151043079308</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>24.47712110649267</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>40.22342905245934</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>51.47214074522068</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>54.27015548916717</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>52.9797324913966</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>48.93535797399359</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>41.87265259107347</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>28.99045422552449</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>15.5669076755449</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>6.033514357868899</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>1.479265387688254</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.01888423899176497</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>0.7718181430470092</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>7.904382557480185</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>29.75551895981985</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>65.50710011843616</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>98.17816211361607</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>121.798691608891</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>135.5245125103033</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>137.7174408092356</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>130.0426741493119</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>110.9884137428388</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>83.34767649496777</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>48.48272142817673</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>17.58780593468374</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>3.378633921188285</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.06174545144376072</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.4129591130463317</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>3.988315644421152</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>14.218109813218</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>39.01558006197821</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>66.68384063608244</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>89.6646530322748</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>104.6344208802043</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>107.4037826514668</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>98.25347809396646</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>78.85707835004908</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>52.71386853552824</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>25.63968949247313</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>7.670534402417603</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>1.664515021445521</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.02716836270041657</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.3462110481823574</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>3.078130955657689</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>10.41151043079308</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>24.47712110649267</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>40.22342905245934</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>51.47214074522068</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>54.27015548916717</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>52.9797324913966</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>48.93535797399359</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>41.87265259107347</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>28.99045422552449</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>15.5669076755449</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>6.033514357868899</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>1.479265387688254</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.01888423899176497</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>199.4342555987305</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N2" t="n">
-        <v>199.4342555987305</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>104.8602003696528</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>199.4342555987305</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>199.4342555987305</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N3" t="n">
-        <v>79.6984022124736</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>45.48731769284426</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M5" t="n">
-        <v>199.4342555987305</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>199.4342555987305</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>199.4342555987305</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>199.4342555987305</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O6" t="n">
-        <v>9.602888562646095</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>149.5428792190285</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>199.4342555987305</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>199.4342555987305</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>121.280792227742</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>199.4342555987305</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>199.4342555987305</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>199.4342555987305</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>53.55781076382364</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>202.2337236398002</v>
       </c>
       <c r="L11" t="n">
-        <v>3.874924893079708</v>
+        <v>303.6934911893542</v>
       </c>
       <c r="M11" t="n">
-        <v>187.5013809844899</v>
+        <v>354.691812775863</v>
       </c>
       <c r="N11" t="n">
-        <v>199.4342555987304</v>
+        <v>345.6513016246288</v>
       </c>
       <c r="O11" t="n">
-        <v>199.4342555987304</v>
+        <v>280.7446439903705</v>
       </c>
       <c r="P11" t="n">
-        <v>199.4342555987304</v>
+        <v>201.5541261590519</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>73.35697728042297</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38.26898873572036</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>193.307638674302</v>
       </c>
       <c r="L12" t="n">
-        <v>37.86260226792655</v>
+        <v>321.9506185558598</v>
       </c>
       <c r="M12" t="n">
-        <v>99.15950530430263</v>
+        <v>428.2054507081859</v>
       </c>
       <c r="N12" t="n">
-        <v>79.97735909033671</v>
+        <v>455.404444911687</v>
       </c>
       <c r="O12" t="n">
-        <v>199.4342555987304</v>
+        <v>349.5195529262515</v>
       </c>
       <c r="P12" t="n">
-        <v>199.4342555987304</v>
+        <v>28.82719291130866</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>17.95393722657649</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>79.06216600553682</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>93.85403245100775</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>97.1119048706252</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>73.52048588803326</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>39.15121185596696</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>53.55781076382355</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>202.2337236398002</v>
       </c>
       <c r="L14" t="n">
-        <v>199.4342555987304</v>
+        <v>303.6934911893542</v>
       </c>
       <c r="M14" t="n">
-        <v>199.4342555987304</v>
+        <v>354.691812775863</v>
       </c>
       <c r="N14" t="n">
-        <v>74.43907735943863</v>
+        <v>345.6513016246288</v>
       </c>
       <c r="O14" t="n">
-        <v>199.4342555987304</v>
+        <v>280.7446439903705</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>201.5541261590519</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>73.35697728042297</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>38.26898873572036</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>193.307638674302</v>
       </c>
       <c r="L15" t="n">
-        <v>199.4342555987304</v>
+        <v>321.9506185558598</v>
       </c>
       <c r="M15" t="n">
-        <v>188.5411490317649</v>
+        <v>428.2054507081859</v>
       </c>
       <c r="N15" t="n">
-        <v>79.97735909033671</v>
+        <v>98.07681606198412</v>
       </c>
       <c r="O15" t="n">
-        <v>50.71942114786026</v>
+        <v>349.5195529262515</v>
       </c>
       <c r="P15" t="n">
-        <v>21.17845723362748</v>
+        <v>263.345439575656</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>122.8093821853558</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>17.95393722657649</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>79.06216600553682</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>93.85403245100775</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>97.1119048706252</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>73.52048588803326</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>39.15121185596696</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N20" t="n">
         <v>478.8956552492236</v>
@@ -36202,10 +36202,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36451,13 +36451,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36913,7 +36913,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047517</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37402,7 +37402,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37551,7 +37551,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060959</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
         <v>478.8956552492236</v>
@@ -37563,7 +37563,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245897</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>191.3763058775696</v>
+        <v>3.87492489307968</v>
       </c>
       <c r="M41" t="n">
-        <v>199.4342555987304</v>
+        <v>458.5023083033371</v>
       </c>
       <c r="N41" t="n">
-        <v>199.4342555987304</v>
+        <v>366.6707943541734</v>
       </c>
       <c r="O41" t="n">
-        <v>199.4342555987304</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>199.4342555987304</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>199.4342555987304</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
         <v>63.73626307629385</v>
       </c>
       <c r="N42" t="n">
-        <v>79.97735909033668</v>
+        <v>127.1850394606169</v>
       </c>
       <c r="O42" t="n">
-        <v>50.71942114786023</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>22.56642334807508</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>174.7487963828673</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>199.4342555987304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>36.30093131326393</v>
+        <v>458.5023083033371</v>
       </c>
       <c r="N44" t="n">
-        <v>199.4342555987304</v>
+        <v>41.54873083723948</v>
       </c>
       <c r="O44" t="n">
-        <v>25.76332749029979</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>61.45835525635218</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>199.4342555987304</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>37.86260226792652</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>199.4342555987304</v>
+        <v>110.9439434465741</v>
       </c>
       <c r="N45" t="n">
         <v>79.97735909033668</v>
       </c>
       <c r="O45" t="n">
-        <v>50.71942114786023</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>146.2338432124696</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
